--- a/src/Data/country_data.xlsx
+++ b/src/Data/country_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f5aee5c5b004427f/Documents/polio-risk-assessment/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{8C2DF0CC-ED50-544B-BC7C-CE3EA75E8A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A3A19AE-0157-4E7B-B2A9-EF7ECCD427CD}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{8C2DF0CC-ED50-544B-BC7C-CE3EA75E8A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF193E07-73A0-464A-AD15-3FB3A2CCE6C6}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CFA64C4-648F-B840-901A-EC2D94882293}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7658" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7659" uniqueCount="450">
   <si>
     <t>Datos generales</t>
   </si>
@@ -1393,6 +1393,9 @@
   <si>
     <t>SPA</t>
   </si>
+  <si>
+    <t>ASDFG</t>
+  </si>
 </sst>
 </file>
 
@@ -2494,7 +2497,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2546,7 +2549,9 @@
       <c r="A6" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>449</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2563,7 +2568,7 @@
   <dimension ref="A1:H341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H2" sqref="H2:H341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2617,12 +2622,18 @@
       <c r="D2" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="E2" s="47">
+        <v>25227</v>
+      </c>
+      <c r="F2" s="47">
+        <v>25227</v>
+      </c>
       <c r="G2" s="47">
         <v>25227</v>
       </c>
-      <c r="H2" s="47"/>
+      <c r="H2" s="47">
+        <v>25227</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -2637,12 +2648,18 @@
       <c r="D3" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="E3" s="47">
+        <v>10813</v>
+      </c>
+      <c r="F3" s="47">
+        <v>10813</v>
+      </c>
       <c r="G3" s="47">
         <v>10813</v>
       </c>
-      <c r="H3" s="47"/>
+      <c r="H3" s="47">
+        <v>10813</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -2657,12 +2674,18 @@
       <c r="D4" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="E4" s="47">
+        <v>42579</v>
+      </c>
+      <c r="F4" s="47">
+        <v>42579</v>
+      </c>
       <c r="G4" s="47">
         <v>42579</v>
       </c>
-      <c r="H4" s="47"/>
+      <c r="H4" s="47">
+        <v>42579</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -2677,12 +2700,18 @@
       <c r="D5" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="E5" s="47">
+        <v>77422</v>
+      </c>
+      <c r="F5" s="47">
+        <v>77422</v>
+      </c>
       <c r="G5" s="47">
         <v>77422</v>
       </c>
-      <c r="H5" s="47"/>
+      <c r="H5" s="47">
+        <v>77422</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -2697,12 +2726,18 @@
       <c r="D6" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
+      <c r="E6" s="47">
+        <v>29805</v>
+      </c>
+      <c r="F6" s="47">
+        <v>29805</v>
+      </c>
       <c r="G6" s="47">
         <v>29805</v>
       </c>
-      <c r="H6" s="47"/>
+      <c r="H6" s="47">
+        <v>29805</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -2717,12 +2752,18 @@
       <c r="D7" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="E7" s="47">
+        <v>9546</v>
+      </c>
+      <c r="F7" s="47">
+        <v>9546</v>
+      </c>
       <c r="G7" s="47">
         <v>9546</v>
       </c>
-      <c r="H7" s="47"/>
+      <c r="H7" s="47">
+        <v>9546</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -2737,9 +2778,16 @@
       <c r="D8" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="E8" s="48">
+        <v>17348</v>
+      </c>
+      <c r="F8" s="48">
+        <v>17348</v>
+      </c>
       <c r="G8" s="48">
+        <v>17348</v>
+      </c>
+      <c r="H8" s="48">
         <v>17348</v>
       </c>
     </row>
@@ -2756,9 +2804,16 @@
       <c r="D9" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="E9" s="48">
+        <v>32877</v>
+      </c>
+      <c r="F9" s="48">
+        <v>32877</v>
+      </c>
       <c r="G9" s="48">
+        <v>32877</v>
+      </c>
+      <c r="H9" s="48">
         <v>32877</v>
       </c>
     </row>
@@ -2775,9 +2830,16 @@
       <c r="D10" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
+      <c r="E10" s="48">
+        <v>15361</v>
+      </c>
+      <c r="F10" s="48">
+        <v>15361</v>
+      </c>
       <c r="G10" s="48">
+        <v>15361</v>
+      </c>
+      <c r="H10" s="48">
         <v>15361</v>
       </c>
     </row>
@@ -2794,9 +2856,16 @@
       <c r="D11" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="E11" s="48">
+        <v>30608</v>
+      </c>
+      <c r="F11" s="48">
+        <v>30608</v>
+      </c>
       <c r="G11" s="48">
+        <v>30608</v>
+      </c>
+      <c r="H11" s="48">
         <v>30608</v>
       </c>
     </row>
@@ -2813,9 +2882,16 @@
       <c r="D12" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
+      <c r="E12" s="48">
+        <v>21737</v>
+      </c>
+      <c r="F12" s="48">
+        <v>21737</v>
+      </c>
       <c r="G12" s="48">
+        <v>21737</v>
+      </c>
+      <c r="H12" s="48">
         <v>21737</v>
       </c>
     </row>
@@ -2832,9 +2908,16 @@
       <c r="D13" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
+      <c r="E13" s="48">
+        <v>92351</v>
+      </c>
+      <c r="F13" s="48">
+        <v>92351</v>
+      </c>
       <c r="G13" s="48">
+        <v>92351</v>
+      </c>
+      <c r="H13" s="48">
         <v>92351</v>
       </c>
     </row>
@@ -2851,9 +2934,16 @@
       <c r="D14" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
+      <c r="E14" s="48">
+        <v>12986</v>
+      </c>
+      <c r="F14" s="48">
+        <v>12986</v>
+      </c>
       <c r="G14" s="48">
+        <v>12986</v>
+      </c>
+      <c r="H14" s="48">
         <v>12986</v>
       </c>
     </row>
@@ -2870,9 +2960,16 @@
       <c r="D15" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
+      <c r="E15" s="48">
+        <v>37630</v>
+      </c>
+      <c r="F15" s="48">
+        <v>37630</v>
+      </c>
       <c r="G15" s="48">
+        <v>37630</v>
+      </c>
+      <c r="H15" s="48">
         <v>37630</v>
       </c>
     </row>
@@ -2889,13 +2986,20 @@
       <c r="D16" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
+      <c r="E16" s="48">
+        <v>14564</v>
+      </c>
+      <c r="F16" s="48">
+        <v>14564</v>
+      </c>
       <c r="G16" s="48">
         <v>14564</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16" s="48">
+        <v>14564</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2908,13 +3012,20 @@
       <c r="D17" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
+      <c r="E17" s="48">
+        <v>9408</v>
+      </c>
+      <c r="F17" s="48">
+        <v>9408</v>
+      </c>
       <c r="G17" s="48">
         <v>9408</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17" s="48">
+        <v>9408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2927,13 +3038,20 @@
       <c r="D18" s="48" t="s">
         <v>426</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
+      <c r="E18" s="48">
+        <v>20080</v>
+      </c>
+      <c r="F18" s="48">
+        <v>20080</v>
+      </c>
       <c r="G18" s="48">
         <v>20080</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18" s="48">
+        <v>20080</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>15</v>
       </c>
@@ -2946,13 +3064,20 @@
       <c r="D19" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
+      <c r="E19" s="48">
+        <v>20561</v>
+      </c>
+      <c r="F19" s="48">
+        <v>20561</v>
+      </c>
       <c r="G19" s="48">
         <v>20561</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19" s="48">
+        <v>20561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>15</v>
       </c>
@@ -2965,13 +3090,20 @@
       <c r="D20" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
+      <c r="E20" s="48">
+        <v>3122</v>
+      </c>
+      <c r="F20" s="48">
+        <v>3122</v>
+      </c>
       <c r="G20" s="48">
         <v>3122</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20" s="48">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>15</v>
       </c>
@@ -2984,13 +3116,20 @@
       <c r="D21" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
+      <c r="E21" s="48">
+        <v>4355</v>
+      </c>
+      <c r="F21" s="48">
+        <v>4355</v>
+      </c>
       <c r="G21" s="48">
         <v>4355</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H21" s="48">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>15</v>
       </c>
@@ -3003,13 +3142,20 @@
       <c r="D22" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
+      <c r="E22" s="48">
+        <v>27445</v>
+      </c>
+      <c r="F22" s="48">
+        <v>27445</v>
+      </c>
       <c r="G22" s="48">
         <v>27445</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H22" s="48">
+        <v>27445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>15</v>
       </c>
@@ -3022,13 +3168,20 @@
       <c r="D23" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
+      <c r="E23" s="48">
+        <v>14576</v>
+      </c>
+      <c r="F23" s="48">
+        <v>14576</v>
+      </c>
       <c r="G23" s="48">
         <v>14576</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23" s="48">
+        <v>14576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>15</v>
       </c>
@@ -3041,13 +3194,20 @@
       <c r="D24" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
+      <c r="E24" s="48">
+        <v>22859</v>
+      </c>
+      <c r="F24" s="48">
+        <v>22859</v>
+      </c>
       <c r="G24" s="48">
         <v>22859</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24" s="48">
+        <v>22859</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>15</v>
       </c>
@@ -3060,13 +3220,20 @@
       <c r="D25" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
+      <c r="E25" s="48">
+        <v>9326</v>
+      </c>
+      <c r="F25" s="48">
+        <v>9326</v>
+      </c>
       <c r="G25" s="48">
         <v>9326</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H25" s="48">
+        <v>9326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>15</v>
       </c>
@@ -3079,13 +3246,20 @@
       <c r="D26" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
+      <c r="E26" s="48">
+        <v>12922</v>
+      </c>
+      <c r="F26" s="48">
+        <v>12922</v>
+      </c>
       <c r="G26" s="48">
         <v>12922</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H26" s="48">
+        <v>12922</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>4</v>
       </c>
@@ -3098,13 +3272,20 @@
       <c r="D27" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
+      <c r="E27" s="48">
+        <v>9060</v>
+      </c>
+      <c r="F27" s="48">
+        <v>9060</v>
+      </c>
       <c r="G27" s="48">
         <v>9060</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27" s="48">
+        <v>9060</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4</v>
       </c>
@@ -3117,13 +3298,20 @@
       <c r="D28" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
+      <c r="E28" s="48">
+        <v>31370</v>
+      </c>
+      <c r="F28" s="48">
+        <v>31370</v>
+      </c>
       <c r="G28" s="48">
         <v>31370</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H28" s="48">
+        <v>31370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>4</v>
       </c>
@@ -3136,13 +3324,20 @@
       <c r="D29" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
+      <c r="E29" s="48">
+        <v>6270</v>
+      </c>
+      <c r="F29" s="48">
+        <v>6270</v>
+      </c>
       <c r="G29" s="48">
         <v>6270</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29" s="48">
+        <v>6270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>4</v>
       </c>
@@ -3155,13 +3350,20 @@
       <c r="D30" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
+      <c r="E30" s="48">
+        <v>6060</v>
+      </c>
+      <c r="F30" s="48">
+        <v>6060</v>
+      </c>
       <c r="G30" s="48">
         <v>6060</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H30" s="48">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3174,13 +3376,20 @@
       <c r="D31" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
+      <c r="E31" s="48">
+        <v>12081</v>
+      </c>
+      <c r="F31" s="48">
+        <v>12081</v>
+      </c>
       <c r="G31" s="48">
         <v>12081</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H31" s="48">
+        <v>12081</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3193,13 +3402,20 @@
       <c r="D32" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
+      <c r="E32" s="48">
+        <v>21685</v>
+      </c>
+      <c r="F32" s="48">
+        <v>21685</v>
+      </c>
       <c r="G32" s="48">
         <v>21685</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H32" s="48">
+        <v>21685</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3212,13 +3428,20 @@
       <c r="D33" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
+      <c r="E33" s="48">
+        <v>3467</v>
+      </c>
+      <c r="F33" s="48">
+        <v>3467</v>
+      </c>
       <c r="G33" s="48">
         <v>3467</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H33" s="48">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>4</v>
       </c>
@@ -3231,13 +3454,20 @@
       <c r="D34" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
+      <c r="E34" s="48">
+        <v>10995</v>
+      </c>
+      <c r="F34" s="48">
+        <v>10995</v>
+      </c>
       <c r="G34" s="48">
         <v>10995</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H34" s="48">
+        <v>10995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>4</v>
       </c>
@@ -3250,13 +3480,20 @@
       <c r="D35" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
+      <c r="E35" s="48">
+        <v>10116</v>
+      </c>
+      <c r="F35" s="48">
+        <v>10116</v>
+      </c>
       <c r="G35" s="48">
         <v>10116</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H35" s="48">
+        <v>10116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>4</v>
       </c>
@@ -3269,13 +3506,20 @@
       <c r="D36" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
+      <c r="E36" s="48">
+        <v>17614</v>
+      </c>
+      <c r="F36" s="48">
+        <v>17614</v>
+      </c>
       <c r="G36" s="48">
         <v>17614</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H36" s="48">
+        <v>17614</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>4</v>
       </c>
@@ -3288,13 +3532,20 @@
       <c r="D37" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
+      <c r="E37" s="48">
+        <v>29627</v>
+      </c>
+      <c r="F37" s="48">
+        <v>29627</v>
+      </c>
       <c r="G37" s="48">
         <v>29627</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H37" s="48">
+        <v>29627</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>4</v>
       </c>
@@ -3307,13 +3558,20 @@
       <c r="D38" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
+      <c r="E38" s="48">
+        <v>8374</v>
+      </c>
+      <c r="F38" s="48">
+        <v>8374</v>
+      </c>
       <c r="G38" s="48">
         <v>8374</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H38" s="48">
+        <v>8374</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>4</v>
       </c>
@@ -3326,13 +3584,20 @@
       <c r="D39" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
+      <c r="E39" s="48">
+        <v>3353</v>
+      </c>
+      <c r="F39" s="48">
+        <v>3353</v>
+      </c>
       <c r="G39" s="48">
         <v>3353</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H39" s="48">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>4</v>
       </c>
@@ -3345,13 +3610,20 @@
       <c r="D40" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
+      <c r="E40" s="48">
+        <v>39142</v>
+      </c>
+      <c r="F40" s="48">
+        <v>39142</v>
+      </c>
       <c r="G40" s="48">
         <v>39142</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H40" s="48">
+        <v>39142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3364,13 +3636,20 @@
       <c r="D41" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
+      <c r="E41" s="48">
+        <v>14835</v>
+      </c>
+      <c r="F41" s="48">
+        <v>14835</v>
+      </c>
       <c r="G41" s="48">
         <v>14835</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H41" s="48">
+        <v>14835</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>4</v>
       </c>
@@ -3383,13 +3662,20 @@
       <c r="D42" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
+      <c r="E42" s="48">
+        <v>8824</v>
+      </c>
+      <c r="F42" s="48">
+        <v>8824</v>
+      </c>
       <c r="G42" s="48">
         <v>8824</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H42" s="48">
+        <v>8824</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>20</v>
       </c>
@@ -3402,13 +3688,20 @@
       <c r="D43" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
+      <c r="E43" s="48">
+        <v>25160</v>
+      </c>
+      <c r="F43" s="48">
+        <v>25160</v>
+      </c>
       <c r="G43" s="48">
         <v>25160</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H43" s="48">
+        <v>25160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>20</v>
       </c>
@@ -3421,13 +3714,20 @@
       <c r="D44" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
+      <c r="E44" s="48">
+        <v>37362</v>
+      </c>
+      <c r="F44" s="48">
+        <v>37362</v>
+      </c>
       <c r="G44" s="48">
         <v>37362</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H44" s="48">
+        <v>37362</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>20</v>
       </c>
@@ -3440,13 +3740,20 @@
       <c r="D45" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
+      <c r="E45" s="48">
+        <v>3334</v>
+      </c>
+      <c r="F45" s="48">
+        <v>3334</v>
+      </c>
       <c r="G45" s="48">
         <v>3334</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H45" s="48">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>20</v>
       </c>
@@ -3459,13 +3766,20 @@
       <c r="D46" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
+      <c r="E46" s="48">
+        <v>17953</v>
+      </c>
+      <c r="F46" s="48">
+        <v>17953</v>
+      </c>
       <c r="G46" s="48">
         <v>17953</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H46" s="48">
+        <v>17953</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>20</v>
       </c>
@@ -3478,13 +3792,20 @@
       <c r="D47" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
+      <c r="E47" s="48">
+        <v>6333</v>
+      </c>
+      <c r="F47" s="48">
+        <v>6333</v>
+      </c>
       <c r="G47" s="48">
         <v>6333</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H47" s="48">
+        <v>6333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>20</v>
       </c>
@@ -3497,13 +3818,20 @@
       <c r="D48" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
+      <c r="E48" s="48">
+        <v>31092</v>
+      </c>
+      <c r="F48" s="48">
+        <v>31092</v>
+      </c>
       <c r="G48" s="48">
         <v>31092</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H48" s="48">
+        <v>31092</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>20</v>
       </c>
@@ -3516,13 +3844,20 @@
       <c r="D49" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
+      <c r="E49" s="48">
+        <v>12182</v>
+      </c>
+      <c r="F49" s="48">
+        <v>12182</v>
+      </c>
       <c r="G49" s="48">
         <v>12182</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H49" s="48">
+        <v>12182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>20</v>
       </c>
@@ -3535,13 +3870,20 @@
       <c r="D50" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
+      <c r="E50" s="48">
+        <v>8716</v>
+      </c>
+      <c r="F50" s="48">
+        <v>8716</v>
+      </c>
       <c r="G50" s="48">
         <v>8716</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H50" s="48">
+        <v>8716</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>20</v>
       </c>
@@ -3554,13 +3896,20 @@
       <c r="D51" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
+      <c r="E51" s="48">
+        <v>3921</v>
+      </c>
+      <c r="F51" s="48">
+        <v>3921</v>
+      </c>
       <c r="G51" s="48">
         <v>3921</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H51" s="48">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>20</v>
       </c>
@@ -3573,13 +3922,20 @@
       <c r="D52" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
+      <c r="E52" s="48">
+        <v>2588</v>
+      </c>
+      <c r="F52" s="48">
+        <v>2588</v>
+      </c>
       <c r="G52" s="48">
         <v>2588</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H52" s="48">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>20</v>
       </c>
@@ -3592,13 +3948,20 @@
       <c r="D53" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
+      <c r="E53" s="48">
+        <v>6115</v>
+      </c>
+      <c r="F53" s="48">
+        <v>6115</v>
+      </c>
       <c r="G53" s="48">
         <v>6115</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H53" s="48">
+        <v>6115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2</v>
       </c>
@@ -3611,13 +3974,20 @@
       <c r="D54" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
+      <c r="E54" s="48">
+        <v>3605</v>
+      </c>
+      <c r="F54" s="48">
+        <v>3605</v>
+      </c>
       <c r="G54" s="48">
         <v>3605</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H54" s="48">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2</v>
       </c>
@@ -3630,13 +4000,20 @@
       <c r="D55" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
+      <c r="E55" s="48">
+        <v>6911</v>
+      </c>
+      <c r="F55" s="48">
+        <v>6911</v>
+      </c>
       <c r="G55" s="48">
         <v>6911</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H55" s="48">
+        <v>6911</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2</v>
       </c>
@@ -3649,13 +4026,20 @@
       <c r="D56" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
+      <c r="E56" s="48">
+        <v>3479</v>
+      </c>
+      <c r="F56" s="48">
+        <v>3479</v>
+      </c>
       <c r="G56" s="48">
         <v>3479</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H56" s="48">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2</v>
       </c>
@@ -3668,13 +4052,20 @@
       <c r="D57" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
+      <c r="E57" s="48">
+        <v>18697</v>
+      </c>
+      <c r="F57" s="48">
+        <v>18697</v>
+      </c>
       <c r="G57" s="48">
         <v>18697</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H57" s="48">
+        <v>18697</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2</v>
       </c>
@@ -3687,13 +4078,20 @@
       <c r="D58" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
+      <c r="E58" s="48">
+        <v>6860</v>
+      </c>
+      <c r="F58" s="48">
+        <v>6860</v>
+      </c>
       <c r="G58" s="48">
         <v>6860</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H58" s="48">
+        <v>6860</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2</v>
       </c>
@@ -3706,13 +4104,20 @@
       <c r="D59" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
+      <c r="E59" s="48">
+        <v>11570</v>
+      </c>
+      <c r="F59" s="48">
+        <v>11570</v>
+      </c>
       <c r="G59" s="48">
         <v>11570</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H59" s="48">
+        <v>11570</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2</v>
       </c>
@@ -3725,13 +4130,20 @@
       <c r="D60" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
+      <c r="E60" s="48">
+        <v>2273</v>
+      </c>
+      <c r="F60" s="48">
+        <v>2273</v>
+      </c>
       <c r="G60" s="48">
         <v>2273</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H60" s="48">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2</v>
       </c>
@@ -3744,13 +4156,20 @@
       <c r="D61" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
+      <c r="E61" s="48">
+        <v>3605</v>
+      </c>
+      <c r="F61" s="48">
+        <v>3605</v>
+      </c>
       <c r="G61" s="48">
         <v>3605</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H61" s="48">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>5</v>
       </c>
@@ -3763,13 +4182,20 @@
       <c r="D62" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
+      <c r="E62" s="48">
+        <v>44820</v>
+      </c>
+      <c r="F62" s="48">
+        <v>44820</v>
+      </c>
       <c r="G62" s="48">
         <v>44820</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H62" s="48">
+        <v>44820</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>5</v>
       </c>
@@ -3782,13 +4208,20 @@
       <c r="D63" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
+      <c r="E63" s="48">
+        <v>5869</v>
+      </c>
+      <c r="F63" s="48">
+        <v>5869</v>
+      </c>
       <c r="G63" s="48">
         <v>5869</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H63" s="48">
+        <v>5869</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>5</v>
       </c>
@@ -3801,13 +4234,20 @@
       <c r="D64" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
+      <c r="E64" s="48">
+        <v>5748</v>
+      </c>
+      <c r="F64" s="48">
+        <v>5748</v>
+      </c>
       <c r="G64" s="48">
         <v>5748</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H64" s="48">
+        <v>5748</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>5</v>
       </c>
@@ -3820,13 +4260,20 @@
       <c r="D65" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="E65" s="48"/>
-      <c r="F65" s="48"/>
+      <c r="E65" s="48">
+        <v>7907</v>
+      </c>
+      <c r="F65" s="48">
+        <v>7907</v>
+      </c>
       <c r="G65" s="48">
         <v>7907</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H65" s="48">
+        <v>7907</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>5</v>
       </c>
@@ -3839,13 +4286,20 @@
       <c r="D66" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
+      <c r="E66" s="48">
+        <v>15402</v>
+      </c>
+      <c r="F66" s="48">
+        <v>15402</v>
+      </c>
       <c r="G66" s="48">
         <v>15402</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H66" s="48">
+        <v>15402</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>5</v>
       </c>
@@ -3858,13 +4312,20 @@
       <c r="D67" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
+      <c r="E67" s="48">
+        <v>14877</v>
+      </c>
+      <c r="F67" s="48">
+        <v>14877</v>
+      </c>
       <c r="G67" s="48">
         <v>14877</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H67" s="48">
+        <v>14877</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>5</v>
       </c>
@@ -3877,13 +4338,20 @@
       <c r="D68" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
+      <c r="E68" s="48">
+        <v>24606</v>
+      </c>
+      <c r="F68" s="48">
+        <v>24606</v>
+      </c>
       <c r="G68" s="48">
         <v>24606</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H68" s="48">
+        <v>24606</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>5</v>
       </c>
@@ -3896,13 +4364,20 @@
       <c r="D69" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="E69" s="48"/>
-      <c r="F69" s="48"/>
+      <c r="E69" s="48">
+        <v>20761</v>
+      </c>
+      <c r="F69" s="48">
+        <v>20761</v>
+      </c>
       <c r="G69" s="48">
         <v>20761</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H69" s="48">
+        <v>20761</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>5</v>
       </c>
@@ -3915,13 +4390,20 @@
       <c r="D70" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="E70" s="48"/>
-      <c r="F70" s="48"/>
+      <c r="E70" s="48">
+        <v>19675</v>
+      </c>
+      <c r="F70" s="48">
+        <v>19675</v>
+      </c>
       <c r="G70" s="48">
         <v>19675</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H70" s="48">
+        <v>19675</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>5</v>
       </c>
@@ -3934,13 +4416,20 @@
       <c r="D71" s="48" t="s">
         <v>435</v>
       </c>
-      <c r="E71" s="48"/>
-      <c r="F71" s="48"/>
+      <c r="E71" s="48">
+        <v>37468</v>
+      </c>
+      <c r="F71" s="48">
+        <v>37468</v>
+      </c>
       <c r="G71" s="48">
         <v>37468</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H71" s="48">
+        <v>37468</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>5</v>
       </c>
@@ -3953,13 +4442,20 @@
       <c r="D72" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
+      <c r="E72" s="48">
+        <v>5289</v>
+      </c>
+      <c r="F72" s="48">
+        <v>5289</v>
+      </c>
       <c r="G72" s="48">
         <v>5289</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H72" s="48">
+        <v>5289</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>5</v>
       </c>
@@ -3972,13 +4468,20 @@
       <c r="D73" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="E73" s="48"/>
-      <c r="F73" s="48"/>
+      <c r="E73" s="48">
+        <v>5145</v>
+      </c>
+      <c r="F73" s="48">
+        <v>5145</v>
+      </c>
       <c r="G73" s="48">
         <v>5145</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H73" s="48">
+        <v>5145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>5</v>
       </c>
@@ -3991,13 +4494,20 @@
       <c r="D74" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="E74" s="48"/>
-      <c r="F74" s="48"/>
+      <c r="E74" s="48">
+        <v>8040</v>
+      </c>
+      <c r="F74" s="48">
+        <v>8040</v>
+      </c>
       <c r="G74" s="48">
         <v>8040</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H74" s="48">
+        <v>8040</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>5</v>
       </c>
@@ -4010,13 +4520,20 @@
       <c r="D75" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
+      <c r="E75" s="48">
+        <v>19242</v>
+      </c>
+      <c r="F75" s="48">
+        <v>19242</v>
+      </c>
       <c r="G75" s="48">
         <v>19242</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H75" s="48">
+        <v>19242</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1</v>
       </c>
@@ -4029,13 +4546,20 @@
       <c r="D76" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="E76" s="48"/>
-      <c r="F76" s="48"/>
+      <c r="E76" s="48">
+        <v>279727</v>
+      </c>
+      <c r="F76" s="48">
+        <v>279727</v>
+      </c>
       <c r="G76" s="48">
         <v>279727</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H76" s="48">
+        <v>279727</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1</v>
       </c>
@@ -4048,13 +4572,20 @@
       <c r="D77" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="E77" s="48"/>
-      <c r="F77" s="48"/>
+      <c r="E77" s="48">
+        <v>5831</v>
+      </c>
+      <c r="F77" s="48">
+        <v>5831</v>
+      </c>
       <c r="G77" s="48">
         <v>5831</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H77" s="48">
+        <v>5831</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1</v>
       </c>
@@ -4067,13 +4598,20 @@
       <c r="D78" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="E78" s="48"/>
-      <c r="F78" s="48"/>
+      <c r="E78" s="48">
+        <v>124548</v>
+      </c>
+      <c r="F78" s="48">
+        <v>124548</v>
+      </c>
       <c r="G78" s="48">
         <v>124548</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H78" s="48">
+        <v>124548</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1</v>
       </c>
@@ -4086,13 +4624,20 @@
       <c r="D79" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="E79" s="48"/>
-      <c r="F79" s="48"/>
+      <c r="E79" s="48">
+        <v>92955</v>
+      </c>
+      <c r="F79" s="48">
+        <v>92955</v>
+      </c>
       <c r="G79" s="48">
         <v>92955</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H79" s="48">
+        <v>92955</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1</v>
       </c>
@@ -4105,13 +4650,20 @@
       <c r="D80" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="E80" s="48"/>
-      <c r="F80" s="48"/>
+      <c r="E80" s="48">
+        <v>17400</v>
+      </c>
+      <c r="F80" s="48">
+        <v>17400</v>
+      </c>
       <c r="G80" s="48">
         <v>17400</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H80" s="48">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1</v>
       </c>
@@ -4124,13 +4676,20 @@
       <c r="D81" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="E81" s="48"/>
-      <c r="F81" s="48"/>
+      <c r="E81" s="48">
+        <v>12600</v>
+      </c>
+      <c r="F81" s="48">
+        <v>12600</v>
+      </c>
       <c r="G81" s="48">
         <v>12600</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H81" s="48">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1</v>
       </c>
@@ -4143,13 +4702,20 @@
       <c r="D82" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="E82" s="48"/>
-      <c r="F82" s="48"/>
+      <c r="E82" s="48">
+        <v>36462</v>
+      </c>
+      <c r="F82" s="48">
+        <v>36462</v>
+      </c>
       <c r="G82" s="48">
         <v>36462</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H82" s="48">
+        <v>36462</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1</v>
       </c>
@@ -4162,13 +4728,20 @@
       <c r="D83" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="E83" s="48"/>
-      <c r="F83" s="48"/>
+      <c r="E83" s="48">
+        <v>15551</v>
+      </c>
+      <c r="F83" s="48">
+        <v>15551</v>
+      </c>
       <c r="G83" s="48">
         <v>15551</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H83" s="48">
+        <v>15551</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1</v>
       </c>
@@ -4181,13 +4754,20 @@
       <c r="D84" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
+      <c r="E84" s="48">
+        <v>24545</v>
+      </c>
+      <c r="F84" s="48">
+        <v>24545</v>
+      </c>
       <c r="G84" s="48">
         <v>24545</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H84" s="48">
+        <v>24545</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1</v>
       </c>
@@ -4200,13 +4780,20 @@
       <c r="D85" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="E85" s="48"/>
-      <c r="F85" s="48"/>
+      <c r="E85" s="48">
+        <v>2521</v>
+      </c>
+      <c r="F85" s="48">
+        <v>2521</v>
+      </c>
       <c r="G85" s="48">
         <v>2521</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H85" s="48">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1</v>
       </c>
@@ -4219,13 +4806,20 @@
       <c r="D86" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="E86" s="48"/>
-      <c r="F86" s="48"/>
+      <c r="E86" s="48">
+        <v>26552</v>
+      </c>
+      <c r="F86" s="48">
+        <v>26552</v>
+      </c>
       <c r="G86" s="48">
         <v>26552</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H86" s="48">
+        <v>26552</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1</v>
       </c>
@@ -4238,13 +4832,20 @@
       <c r="D87" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="E87" s="48"/>
-      <c r="F87" s="48"/>
+      <c r="E87" s="48">
+        <v>20960</v>
+      </c>
+      <c r="F87" s="48">
+        <v>20960</v>
+      </c>
       <c r="G87" s="48">
         <v>20960</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H87" s="48">
+        <v>20960</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1</v>
       </c>
@@ -4257,13 +4858,20 @@
       <c r="D88" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="E88" s="48"/>
-      <c r="F88" s="48"/>
+      <c r="E88" s="48">
+        <v>22381</v>
+      </c>
+      <c r="F88" s="48">
+        <v>22381</v>
+      </c>
       <c r="G88" s="48">
         <v>22381</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H88" s="48">
+        <v>22381</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1</v>
       </c>
@@ -4276,13 +4884,20 @@
       <c r="D89" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="E89" s="48"/>
-      <c r="F89" s="48"/>
+      <c r="E89" s="48">
+        <v>43371</v>
+      </c>
+      <c r="F89" s="48">
+        <v>43371</v>
+      </c>
       <c r="G89" s="48">
         <v>43371</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H89" s="48">
+        <v>43371</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>1</v>
       </c>
@@ -4295,13 +4910,20 @@
       <c r="D90" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="E90" s="48"/>
-      <c r="F90" s="48"/>
+      <c r="E90" s="48">
+        <v>38650</v>
+      </c>
+      <c r="F90" s="48">
+        <v>38650</v>
+      </c>
       <c r="G90" s="48">
         <v>38650</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H90" s="48">
+        <v>38650</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1</v>
       </c>
@@ -4314,13 +4936,20 @@
       <c r="D91" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="E91" s="48"/>
-      <c r="F91" s="48"/>
+      <c r="E91" s="48">
+        <v>49808</v>
+      </c>
+      <c r="F91" s="48">
+        <v>49808</v>
+      </c>
       <c r="G91" s="48">
         <v>49808</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H91" s="48">
+        <v>49808</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>1</v>
       </c>
@@ -4333,13 +4962,20 @@
       <c r="D92" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="E92" s="48"/>
-      <c r="F92" s="48"/>
+      <c r="E92" s="48">
+        <v>130776</v>
+      </c>
+      <c r="F92" s="48">
+        <v>130776</v>
+      </c>
       <c r="G92" s="48">
         <v>130776</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H92" s="48">
+        <v>130776</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>13</v>
       </c>
@@ -4352,13 +4988,20 @@
       <c r="D93" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="E93" s="48"/>
-      <c r="F93" s="48"/>
+      <c r="E93" s="48">
+        <v>20485</v>
+      </c>
+      <c r="F93" s="48">
+        <v>20485</v>
+      </c>
       <c r="G93" s="48">
         <v>20485</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H93" s="48">
+        <v>20485</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>13</v>
       </c>
@@ -4371,13 +5014,20 @@
       <c r="D94" s="48" t="s">
         <v>427</v>
       </c>
-      <c r="E94" s="48"/>
-      <c r="F94" s="48"/>
+      <c r="E94" s="48">
+        <v>51665</v>
+      </c>
+      <c r="F94" s="48">
+        <v>51665</v>
+      </c>
       <c r="G94" s="48">
         <v>51665</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H94" s="48">
+        <v>51665</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>13</v>
       </c>
@@ -4390,13 +5040,20 @@
       <c r="D95" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="E95" s="48"/>
-      <c r="F95" s="48"/>
+      <c r="E95" s="48">
+        <v>33770</v>
+      </c>
+      <c r="F95" s="48">
+        <v>33770</v>
+      </c>
       <c r="G95" s="48">
         <v>33770</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H95" s="48">
+        <v>33770</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>13</v>
       </c>
@@ -4409,13 +5066,20 @@
       <c r="D96" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48"/>
+      <c r="E96" s="48">
+        <v>18710</v>
+      </c>
+      <c r="F96" s="48">
+        <v>18710</v>
+      </c>
       <c r="G96" s="48">
         <v>18710</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H96" s="48">
+        <v>18710</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>13</v>
       </c>
@@ -4428,13 +5092,20 @@
       <c r="D97" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="E97" s="48"/>
-      <c r="F97" s="48"/>
+      <c r="E97" s="48">
+        <v>7825</v>
+      </c>
+      <c r="F97" s="48">
+        <v>7825</v>
+      </c>
       <c r="G97" s="48">
         <v>7825</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H97" s="48">
+        <v>7825</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>13</v>
       </c>
@@ -4447,13 +5118,20 @@
       <c r="D98" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="E98" s="48"/>
-      <c r="F98" s="48"/>
+      <c r="E98" s="48">
+        <v>26403</v>
+      </c>
+      <c r="F98" s="48">
+        <v>26403</v>
+      </c>
       <c r="G98" s="48">
         <v>26403</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H98" s="48">
+        <v>26403</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>13</v>
       </c>
@@ -4466,13 +5144,20 @@
       <c r="D99" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="E99" s="48"/>
-      <c r="F99" s="48"/>
+      <c r="E99" s="48">
+        <v>40083</v>
+      </c>
+      <c r="F99" s="48">
+        <v>40083</v>
+      </c>
       <c r="G99" s="48">
         <v>40083</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H99" s="48">
+        <v>40083</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>13</v>
       </c>
@@ -4485,13 +5170,20 @@
       <c r="D100" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="E100" s="48"/>
-      <c r="F100" s="48"/>
+      <c r="E100" s="48">
+        <v>13439</v>
+      </c>
+      <c r="F100" s="48">
+        <v>13439</v>
+      </c>
       <c r="G100" s="48">
         <v>13439</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H100" s="48">
+        <v>13439</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>13</v>
       </c>
@@ -4504,13 +5196,20 @@
       <c r="D101" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="E101" s="48"/>
-      <c r="F101" s="48"/>
+      <c r="E101" s="48">
+        <v>22136</v>
+      </c>
+      <c r="F101" s="48">
+        <v>22136</v>
+      </c>
       <c r="G101" s="48">
         <v>22136</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H101" s="48">
+        <v>22136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>13</v>
       </c>
@@ -4523,13 +5222,20 @@
       <c r="D102" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="E102" s="48"/>
-      <c r="F102" s="48"/>
+      <c r="E102" s="48">
+        <v>18381</v>
+      </c>
+      <c r="F102" s="48">
+        <v>18381</v>
+      </c>
       <c r="G102" s="48">
         <v>18381</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H102" s="48">
+        <v>18381</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>13</v>
       </c>
@@ -4542,13 +5248,20 @@
       <c r="D103" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="E103" s="48"/>
-      <c r="F103" s="48"/>
+      <c r="E103" s="48">
+        <v>7911</v>
+      </c>
+      <c r="F103" s="48">
+        <v>7911</v>
+      </c>
       <c r="G103" s="48">
         <v>7911</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H103" s="48">
+        <v>7911</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>13</v>
       </c>
@@ -4561,13 +5274,20 @@
       <c r="D104" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="E104" s="48"/>
-      <c r="F104" s="48"/>
+      <c r="E104" s="48">
+        <v>20518</v>
+      </c>
+      <c r="F104" s="48">
+        <v>20518</v>
+      </c>
       <c r="G104" s="48">
         <v>20518</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H104" s="48">
+        <v>20518</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>13</v>
       </c>
@@ -4580,13 +5300,20 @@
       <c r="D105" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="E105" s="48"/>
-      <c r="F105" s="48"/>
+      <c r="E105" s="48">
+        <v>2651</v>
+      </c>
+      <c r="F105" s="48">
+        <v>2651</v>
+      </c>
       <c r="G105" s="48">
         <v>2651</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H105" s="48">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>13</v>
       </c>
@@ -4599,13 +5326,20 @@
       <c r="D106" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="E106" s="48"/>
-      <c r="F106" s="48"/>
+      <c r="E106" s="48">
+        <v>6360</v>
+      </c>
+      <c r="F106" s="48">
+        <v>6360</v>
+      </c>
       <c r="G106" s="48">
         <v>6360</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H106" s="48">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>13</v>
       </c>
@@ -4618,13 +5352,20 @@
       <c r="D107" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="E107" s="48"/>
-      <c r="F107" s="48"/>
+      <c r="E107" s="48">
+        <v>4612</v>
+      </c>
+      <c r="F107" s="48">
+        <v>4612</v>
+      </c>
       <c r="G107" s="48">
         <v>4612</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H107" s="48">
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>13</v>
       </c>
@@ -4637,13 +5378,20 @@
       <c r="D108" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="E108" s="48"/>
-      <c r="F108" s="48"/>
+      <c r="E108" s="48">
+        <v>23041</v>
+      </c>
+      <c r="F108" s="48">
+        <v>23041</v>
+      </c>
       <c r="G108" s="48">
         <v>23041</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H108" s="48">
+        <v>23041</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>13</v>
       </c>
@@ -4656,13 +5404,20 @@
       <c r="D109" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="E109" s="48"/>
-      <c r="F109" s="48"/>
+      <c r="E109" s="48">
+        <v>9420</v>
+      </c>
+      <c r="F109" s="48">
+        <v>9420</v>
+      </c>
       <c r="G109" s="48">
         <v>9420</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H109" s="48">
+        <v>9420</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>13</v>
       </c>
@@ -4675,13 +5430,20 @@
       <c r="D110" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="E110" s="48"/>
-      <c r="F110" s="48"/>
+      <c r="E110" s="48">
+        <v>13110</v>
+      </c>
+      <c r="F110" s="48">
+        <v>13110</v>
+      </c>
       <c r="G110" s="48">
         <v>13110</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H110" s="48">
+        <v>13110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>13</v>
       </c>
@@ -4694,13 +5456,20 @@
       <c r="D111" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="E111" s="48"/>
-      <c r="F111" s="48"/>
+      <c r="E111" s="48">
+        <v>25874</v>
+      </c>
+      <c r="F111" s="48">
+        <v>25874</v>
+      </c>
       <c r="G111" s="48">
         <v>25874</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H111" s="48">
+        <v>25874</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>13</v>
       </c>
@@ -4713,13 +5482,20 @@
       <c r="D112" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="E112" s="48"/>
-      <c r="F112" s="48"/>
+      <c r="E112" s="48">
+        <v>15603</v>
+      </c>
+      <c r="F112" s="48">
+        <v>15603</v>
+      </c>
       <c r="G112" s="48">
         <v>15603</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H112" s="48">
+        <v>15603</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>13</v>
       </c>
@@ -4732,13 +5508,20 @@
       <c r="D113" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="E113" s="48"/>
-      <c r="F113" s="48"/>
+      <c r="E113" s="48">
+        <v>15318</v>
+      </c>
+      <c r="F113" s="48">
+        <v>15318</v>
+      </c>
       <c r="G113" s="48">
         <v>15318</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H113" s="48">
+        <v>15318</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>13</v>
       </c>
@@ -4751,13 +5534,20 @@
       <c r="D114" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="E114" s="48"/>
-      <c r="F114" s="48"/>
+      <c r="E114" s="48">
+        <v>26508</v>
+      </c>
+      <c r="F114" s="48">
+        <v>26508</v>
+      </c>
       <c r="G114" s="48">
         <v>26508</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H114" s="48">
+        <v>26508</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>13</v>
       </c>
@@ -4770,13 +5560,20 @@
       <c r="D115" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="E115" s="48"/>
-      <c r="F115" s="48"/>
+      <c r="E115" s="48">
+        <v>7722</v>
+      </c>
+      <c r="F115" s="48">
+        <v>7722</v>
+      </c>
       <c r="G115" s="48">
         <v>7722</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H115" s="48">
+        <v>7722</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>13</v>
       </c>
@@ -4789,13 +5586,20 @@
       <c r="D116" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="E116" s="48"/>
-      <c r="F116" s="48"/>
+      <c r="E116" s="48">
+        <v>4862</v>
+      </c>
+      <c r="F116" s="48">
+        <v>4862</v>
+      </c>
       <c r="G116" s="48">
         <v>4862</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H116" s="48">
+        <v>4862</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>13</v>
       </c>
@@ -4808,13 +5612,20 @@
       <c r="D117" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="E117" s="48"/>
-      <c r="F117" s="48"/>
+      <c r="E117" s="48">
+        <v>9772</v>
+      </c>
+      <c r="F117" s="48">
+        <v>9772</v>
+      </c>
       <c r="G117" s="48">
         <v>9772</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H117" s="48">
+        <v>9772</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>13</v>
       </c>
@@ -4827,13 +5638,20 @@
       <c r="D118" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="E118" s="48"/>
-      <c r="F118" s="48"/>
+      <c r="E118" s="48">
+        <v>16947</v>
+      </c>
+      <c r="F118" s="48">
+        <v>16947</v>
+      </c>
       <c r="G118" s="48">
         <v>16947</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H118" s="48">
+        <v>16947</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>13</v>
       </c>
@@ -4846,13 +5664,20 @@
       <c r="D119" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="E119" s="48"/>
-      <c r="F119" s="48"/>
+      <c r="E119" s="48">
+        <v>3343</v>
+      </c>
+      <c r="F119" s="48">
+        <v>3343</v>
+      </c>
       <c r="G119" s="48">
         <v>3343</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H119" s="48">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>13</v>
       </c>
@@ -4865,13 +5690,20 @@
       <c r="D120" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="E120" s="48"/>
-      <c r="F120" s="48"/>
+      <c r="E120" s="48">
+        <v>18177</v>
+      </c>
+      <c r="F120" s="48">
+        <v>18177</v>
+      </c>
       <c r="G120" s="48">
         <v>18177</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H120" s="48">
+        <v>18177</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>13</v>
       </c>
@@ -4884,13 +5716,20 @@
       <c r="D121" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="E121" s="48"/>
-      <c r="F121" s="48"/>
+      <c r="E121" s="48">
+        <v>21579</v>
+      </c>
+      <c r="F121" s="48">
+        <v>21579</v>
+      </c>
       <c r="G121" s="48">
         <v>21579</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H121" s="48">
+        <v>21579</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>13</v>
       </c>
@@ -4903,13 +5742,20 @@
       <c r="D122" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="E122" s="48"/>
-      <c r="F122" s="48"/>
+      <c r="E122" s="48">
+        <v>4803</v>
+      </c>
+      <c r="F122" s="48">
+        <v>4803</v>
+      </c>
       <c r="G122" s="48">
         <v>4803</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H122" s="48">
+        <v>4803</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>13</v>
       </c>
@@ -4922,13 +5768,20 @@
       <c r="D123" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="E123" s="48"/>
-      <c r="F123" s="48"/>
+      <c r="E123" s="48">
+        <v>4830</v>
+      </c>
+      <c r="F123" s="48">
+        <v>4830</v>
+      </c>
       <c r="G123" s="48">
         <v>4830</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H123" s="48">
+        <v>4830</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>13</v>
       </c>
@@ -4941,13 +5794,20 @@
       <c r="D124" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="E124" s="48"/>
-      <c r="F124" s="48"/>
+      <c r="E124" s="48">
+        <v>14736</v>
+      </c>
+      <c r="F124" s="48">
+        <v>14736</v>
+      </c>
       <c r="G124" s="48">
         <v>14736</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H124" s="48">
+        <v>14736</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>13</v>
       </c>
@@ -4960,13 +5820,20 @@
       <c r="D125" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="E125" s="48"/>
-      <c r="F125" s="48"/>
+      <c r="E125" s="48">
+        <v>6411</v>
+      </c>
+      <c r="F125" s="48">
+        <v>6411</v>
+      </c>
       <c r="G125" s="48">
         <v>6411</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H125" s="48">
+        <v>6411</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>14</v>
       </c>
@@ -4979,13 +5846,20 @@
       <c r="D126" s="48" t="s">
         <v>428</v>
       </c>
-      <c r="E126" s="48"/>
-      <c r="F126" s="48"/>
+      <c r="E126" s="48">
+        <v>45494</v>
+      </c>
+      <c r="F126" s="48">
+        <v>45494</v>
+      </c>
       <c r="G126" s="48">
         <v>45494</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H126" s="48">
+        <v>45494</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>14</v>
       </c>
@@ -4998,13 +5872,20 @@
       <c r="D127" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="E127" s="48"/>
-      <c r="F127" s="48"/>
+      <c r="E127" s="48">
+        <v>20551</v>
+      </c>
+      <c r="F127" s="48">
+        <v>20551</v>
+      </c>
       <c r="G127" s="48">
         <v>20551</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H127" s="48">
+        <v>20551</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>14</v>
       </c>
@@ -5017,13 +5898,20 @@
       <c r="D128" s="48" t="s">
         <v>429</v>
       </c>
-      <c r="E128" s="48"/>
-      <c r="F128" s="48"/>
+      <c r="E128" s="48">
+        <v>27136</v>
+      </c>
+      <c r="F128" s="48">
+        <v>27136</v>
+      </c>
       <c r="G128" s="48">
         <v>27136</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H128" s="48">
+        <v>27136</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>14</v>
       </c>
@@ -5036,13 +5924,20 @@
       <c r="D129" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="E129" s="48"/>
-      <c r="F129" s="48"/>
+      <c r="E129" s="48">
+        <v>14923</v>
+      </c>
+      <c r="F129" s="48">
+        <v>14923</v>
+      </c>
       <c r="G129" s="48">
         <v>14923</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H129" s="48">
+        <v>14923</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>18</v>
       </c>
@@ -5055,13 +5950,20 @@
       <c r="D130" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="E130" s="48"/>
-      <c r="F130" s="48"/>
+      <c r="E130" s="48">
+        <v>33539</v>
+      </c>
+      <c r="F130" s="48">
+        <v>33539</v>
+      </c>
       <c r="G130" s="48">
         <v>33539</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H130" s="48">
+        <v>33539</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>18</v>
       </c>
@@ -5074,13 +5976,20 @@
       <c r="D131" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="E131" s="48"/>
-      <c r="F131" s="48"/>
+      <c r="E131" s="48">
+        <v>28602</v>
+      </c>
+      <c r="F131" s="48">
+        <v>28602</v>
+      </c>
       <c r="G131" s="48">
         <v>28602</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H131" s="48">
+        <v>28602</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>18</v>
       </c>
@@ -5093,13 +6002,20 @@
       <c r="D132" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="E132" s="48"/>
-      <c r="F132" s="48"/>
+      <c r="E132" s="48">
+        <v>21211</v>
+      </c>
+      <c r="F132" s="48">
+        <v>21211</v>
+      </c>
       <c r="G132" s="48">
         <v>21211</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H132" s="48">
+        <v>21211</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>18</v>
       </c>
@@ -5112,13 +6028,20 @@
       <c r="D133" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="E133" s="48"/>
-      <c r="F133" s="48"/>
+      <c r="E133" s="48">
+        <v>32321</v>
+      </c>
+      <c r="F133" s="48">
+        <v>32321</v>
+      </c>
       <c r="G133" s="48">
         <v>32321</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H133" s="48">
+        <v>32321</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>18</v>
       </c>
@@ -5131,13 +6054,20 @@
       <c r="D134" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="E134" s="48"/>
-      <c r="F134" s="48"/>
+      <c r="E134" s="48">
+        <v>28685</v>
+      </c>
+      <c r="F134" s="48">
+        <v>28685</v>
+      </c>
       <c r="G134" s="48">
         <v>28685</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H134" s="48">
+        <v>28685</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>21</v>
       </c>
@@ -5150,13 +6080,20 @@
       <c r="D135" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="E135" s="48"/>
-      <c r="F135" s="48"/>
+      <c r="E135" s="48">
+        <v>65648</v>
+      </c>
+      <c r="F135" s="48">
+        <v>65648</v>
+      </c>
       <c r="G135" s="48">
         <v>65648</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H135" s="48">
+        <v>65648</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>21</v>
       </c>
@@ -5169,13 +6106,20 @@
       <c r="D136" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="E136" s="48"/>
-      <c r="F136" s="48"/>
+      <c r="E136" s="48">
+        <v>14629</v>
+      </c>
+      <c r="F136" s="48">
+        <v>14629</v>
+      </c>
       <c r="G136" s="48">
         <v>14629</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H136" s="48">
+        <v>14629</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>21</v>
       </c>
@@ -5188,13 +6132,20 @@
       <c r="D137" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="E137" s="48"/>
-      <c r="F137" s="48"/>
+      <c r="E137" s="48">
+        <v>8590</v>
+      </c>
+      <c r="F137" s="48">
+        <v>8590</v>
+      </c>
       <c r="G137" s="48">
         <v>8590</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H137" s="48">
+        <v>8590</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>21</v>
       </c>
@@ -5207,13 +6158,20 @@
       <c r="D138" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="E138" s="48"/>
-      <c r="F138" s="48"/>
+      <c r="E138" s="48">
+        <v>7761</v>
+      </c>
+      <c r="F138" s="48">
+        <v>7761</v>
+      </c>
       <c r="G138" s="48">
         <v>7761</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H138" s="48">
+        <v>7761</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>21</v>
       </c>
@@ -5226,13 +6184,20 @@
       <c r="D139" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="E139" s="48"/>
-      <c r="F139" s="48"/>
+      <c r="E139" s="48">
+        <v>6834</v>
+      </c>
+      <c r="F139" s="48">
+        <v>6834</v>
+      </c>
       <c r="G139" s="48">
         <v>6834</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H139" s="48">
+        <v>6834</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>21</v>
       </c>
@@ -5245,13 +6210,20 @@
       <c r="D140" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="E140" s="48"/>
-      <c r="F140" s="48"/>
+      <c r="E140" s="48">
+        <v>2329</v>
+      </c>
+      <c r="F140" s="48">
+        <v>2329</v>
+      </c>
       <c r="G140" s="48">
         <v>2329</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H140" s="48">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>21</v>
       </c>
@@ -5264,13 +6236,20 @@
       <c r="D141" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="E141" s="48"/>
-      <c r="F141" s="48"/>
+      <c r="E141" s="48">
+        <v>27958</v>
+      </c>
+      <c r="F141" s="48">
+        <v>27958</v>
+      </c>
       <c r="G141" s="48">
         <v>27958</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H141" s="48">
+        <v>27958</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>22</v>
       </c>
@@ -5283,13 +6262,20 @@
       <c r="D142" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="E142" s="48"/>
-      <c r="F142" s="48"/>
+      <c r="E142" s="48">
+        <v>4387</v>
+      </c>
+      <c r="F142" s="48">
+        <v>4387</v>
+      </c>
       <c r="G142" s="48">
         <v>4387</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H142" s="48">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>22</v>
       </c>
@@ -5302,13 +6288,20 @@
       <c r="D143" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="E143" s="48"/>
-      <c r="F143" s="48"/>
+      <c r="E143" s="48">
+        <v>13137</v>
+      </c>
+      <c r="F143" s="48">
+        <v>13137</v>
+      </c>
       <c r="G143" s="48">
         <v>13137</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H143" s="48">
+        <v>13137</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>22</v>
       </c>
@@ -5321,13 +6314,20 @@
       <c r="D144" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="E144" s="48"/>
-      <c r="F144" s="48"/>
+      <c r="E144" s="48">
+        <v>4949</v>
+      </c>
+      <c r="F144" s="48">
+        <v>4949</v>
+      </c>
       <c r="G144" s="48">
         <v>4949</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H144" s="48">
+        <v>4949</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>22</v>
       </c>
@@ -5340,13 +6340,20 @@
       <c r="D145" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="E145" s="48"/>
-      <c r="F145" s="48"/>
+      <c r="E145" s="48">
+        <v>12404</v>
+      </c>
+      <c r="F145" s="48">
+        <v>12404</v>
+      </c>
       <c r="G145" s="48">
         <v>12404</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H145" s="48">
+        <v>12404</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>22</v>
       </c>
@@ -5359,13 +6366,20 @@
       <c r="D146" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="E146" s="48"/>
-      <c r="F146" s="48"/>
+      <c r="E146" s="48">
+        <v>11090</v>
+      </c>
+      <c r="F146" s="48">
+        <v>11090</v>
+      </c>
       <c r="G146" s="48">
         <v>11090</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H146" s="48">
+        <v>11090</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>22</v>
       </c>
@@ -5378,13 +6392,20 @@
       <c r="D147" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="E147" s="48"/>
-      <c r="F147" s="48"/>
+      <c r="E147" s="48">
+        <v>2393</v>
+      </c>
+      <c r="F147" s="48">
+        <v>2393</v>
+      </c>
       <c r="G147" s="48">
         <v>2393</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H147" s="48">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>22</v>
       </c>
@@ -5397,13 +6418,20 @@
       <c r="D148" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="E148" s="48"/>
-      <c r="F148" s="48"/>
+      <c r="E148" s="48">
+        <v>6410</v>
+      </c>
+      <c r="F148" s="48">
+        <v>6410</v>
+      </c>
       <c r="G148" s="48">
         <v>6410</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H148" s="48">
+        <v>6410</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>22</v>
       </c>
@@ -5416,13 +6444,20 @@
       <c r="D149" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="E149" s="48"/>
-      <c r="F149" s="48"/>
+      <c r="E149" s="48">
+        <v>9016</v>
+      </c>
+      <c r="F149" s="48">
+        <v>9016</v>
+      </c>
       <c r="G149" s="48">
         <v>9016</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H149" s="48">
+        <v>9016</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>22</v>
       </c>
@@ -5435,13 +6470,20 @@
       <c r="D150" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="E150" s="48"/>
-      <c r="F150" s="48"/>
+      <c r="E150" s="48">
+        <v>1740</v>
+      </c>
+      <c r="F150" s="48">
+        <v>1740</v>
+      </c>
       <c r="G150" s="48">
         <v>1740</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H150" s="48">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>22</v>
       </c>
@@ -5454,13 +6496,20 @@
       <c r="D151" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="E151" s="48"/>
-      <c r="F151" s="48"/>
+      <c r="E151" s="48">
+        <v>50862</v>
+      </c>
+      <c r="F151" s="48">
+        <v>50862</v>
+      </c>
       <c r="G151" s="48">
         <v>50862</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H151" s="48">
+        <v>50862</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>22</v>
       </c>
@@ -5473,13 +6522,20 @@
       <c r="D152" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="E152" s="48"/>
-      <c r="F152" s="48"/>
+      <c r="E152" s="48">
+        <v>15625</v>
+      </c>
+      <c r="F152" s="48">
+        <v>15625</v>
+      </c>
       <c r="G152" s="48">
         <v>15625</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H152" s="48">
+        <v>15625</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>22</v>
       </c>
@@ -5492,13 +6548,20 @@
       <c r="D153" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="E153" s="48"/>
-      <c r="F153" s="48"/>
+      <c r="E153" s="48">
+        <v>3398</v>
+      </c>
+      <c r="F153" s="48">
+        <v>3398</v>
+      </c>
       <c r="G153" s="48">
         <v>3398</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H153" s="48">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>22</v>
       </c>
@@ -5511,13 +6574,20 @@
       <c r="D154" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="E154" s="48"/>
-      <c r="F154" s="48"/>
+      <c r="E154" s="48">
+        <v>6665</v>
+      </c>
+      <c r="F154" s="48">
+        <v>6665</v>
+      </c>
       <c r="G154" s="48">
         <v>6665</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H154" s="48">
+        <v>6665</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>22</v>
       </c>
@@ -5530,13 +6600,20 @@
       <c r="D155" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="E155" s="48"/>
-      <c r="F155" s="48"/>
+      <c r="E155" s="48">
+        <v>3463</v>
+      </c>
+      <c r="F155" s="48">
+        <v>3463</v>
+      </c>
       <c r="G155" s="48">
         <v>3463</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H155" s="48">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>22</v>
       </c>
@@ -5549,13 +6626,20 @@
       <c r="D156" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="E156" s="48"/>
-      <c r="F156" s="48"/>
+      <c r="E156" s="48">
+        <v>8635</v>
+      </c>
+      <c r="F156" s="48">
+        <v>8635</v>
+      </c>
       <c r="G156" s="48">
         <v>8635</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H156" s="48">
+        <v>8635</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>22</v>
       </c>
@@ -5568,13 +6652,20 @@
       <c r="D157" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="E157" s="48"/>
-      <c r="F157" s="48"/>
+      <c r="E157" s="48">
+        <v>5256</v>
+      </c>
+      <c r="F157" s="48">
+        <v>5256</v>
+      </c>
       <c r="G157" s="48">
         <v>5256</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H157" s="48">
+        <v>5256</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>22</v>
       </c>
@@ -5587,13 +6678,20 @@
       <c r="D158" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="E158" s="48"/>
-      <c r="F158" s="48"/>
+      <c r="E158" s="48">
+        <v>3150</v>
+      </c>
+      <c r="F158" s="48">
+        <v>3150</v>
+      </c>
       <c r="G158" s="48">
         <v>3150</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H158" s="48">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>17</v>
       </c>
@@ -5606,13 +6704,20 @@
       <c r="D159" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="E159" s="48"/>
-      <c r="F159" s="48"/>
+      <c r="E159" s="48">
+        <v>12385</v>
+      </c>
+      <c r="F159" s="48">
+        <v>12385</v>
+      </c>
       <c r="G159" s="48">
         <v>12385</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H159" s="48">
+        <v>12385</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>17</v>
       </c>
@@ -5625,13 +6730,20 @@
       <c r="D160" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="E160" s="48"/>
-      <c r="F160" s="48"/>
+      <c r="E160" s="48">
+        <v>9849</v>
+      </c>
+      <c r="F160" s="48">
+        <v>9849</v>
+      </c>
       <c r="G160" s="48">
         <v>9849</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H160" s="48">
+        <v>9849</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>17</v>
       </c>
@@ -5644,13 +6756,20 @@
       <c r="D161" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="E161" s="48"/>
-      <c r="F161" s="48"/>
+      <c r="E161" s="48">
+        <v>12981</v>
+      </c>
+      <c r="F161" s="48">
+        <v>12981</v>
+      </c>
       <c r="G161" s="48">
         <v>12981</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H161" s="48">
+        <v>12981</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>17</v>
       </c>
@@ -5663,13 +6782,20 @@
       <c r="D162" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="E162" s="48"/>
-      <c r="F162" s="48"/>
+      <c r="E162" s="48">
+        <v>15717</v>
+      </c>
+      <c r="F162" s="48">
+        <v>15717</v>
+      </c>
       <c r="G162" s="48">
         <v>15717</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H162" s="48">
+        <v>15717</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>17</v>
       </c>
@@ -5682,13 +6808,20 @@
       <c r="D163" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="E163" s="48"/>
-      <c r="F163" s="48"/>
+      <c r="E163" s="48">
+        <v>5599</v>
+      </c>
+      <c r="F163" s="48">
+        <v>5599</v>
+      </c>
       <c r="G163" s="48">
         <v>5599</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H163" s="48">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>17</v>
       </c>
@@ -5701,13 +6834,20 @@
       <c r="D164" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="E164" s="48"/>
-      <c r="F164" s="48"/>
+      <c r="E164" s="48">
+        <v>2445</v>
+      </c>
+      <c r="F164" s="48">
+        <v>2445</v>
+      </c>
       <c r="G164" s="48">
         <v>2445</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H164" s="48">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>17</v>
       </c>
@@ -5720,13 +6860,20 @@
       <c r="D165" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="E165" s="48"/>
-      <c r="F165" s="48"/>
+      <c r="E165" s="48">
+        <v>31063</v>
+      </c>
+      <c r="F165" s="48">
+        <v>31063</v>
+      </c>
       <c r="G165" s="48">
         <v>31063</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H165" s="48">
+        <v>31063</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>17</v>
       </c>
@@ -5739,13 +6886,20 @@
       <c r="D166" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="E166" s="48"/>
-      <c r="F166" s="48"/>
+      <c r="E166" s="48">
+        <v>14302</v>
+      </c>
+      <c r="F166" s="48">
+        <v>14302</v>
+      </c>
       <c r="G166" s="48">
         <v>14302</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H166" s="48">
+        <v>14302</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>17</v>
       </c>
@@ -5758,13 +6912,20 @@
       <c r="D167" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="E167" s="48"/>
-      <c r="F167" s="48"/>
+      <c r="E167" s="48">
+        <v>38769</v>
+      </c>
+      <c r="F167" s="48">
+        <v>38769</v>
+      </c>
       <c r="G167" s="48">
         <v>38769</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H167" s="48">
+        <v>38769</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>17</v>
       </c>
@@ -5777,13 +6938,20 @@
       <c r="D168" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="E168" s="48"/>
-      <c r="F168" s="48"/>
+      <c r="E168" s="48">
+        <v>10685</v>
+      </c>
+      <c r="F168" s="48">
+        <v>10685</v>
+      </c>
       <c r="G168" s="48">
         <v>10685</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H168" s="48">
+        <v>10685</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>17</v>
       </c>
@@ -5796,13 +6964,20 @@
       <c r="D169" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="E169" s="48"/>
-      <c r="F169" s="48"/>
+      <c r="E169" s="48">
+        <v>5287</v>
+      </c>
+      <c r="F169" s="48">
+        <v>5287</v>
+      </c>
       <c r="G169" s="48">
         <v>5287</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H169" s="48">
+        <v>5287</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>17</v>
       </c>
@@ -5815,13 +6990,20 @@
       <c r="D170" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="E170" s="48"/>
-      <c r="F170" s="48"/>
+      <c r="E170" s="48">
+        <v>22931</v>
+      </c>
+      <c r="F170" s="48">
+        <v>22931</v>
+      </c>
       <c r="G170" s="48">
         <v>22931</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H170" s="48">
+        <v>22931</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>17</v>
       </c>
@@ -5834,13 +7016,20 @@
       <c r="D171" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="E171" s="48"/>
-      <c r="F171" s="48"/>
+      <c r="E171" s="48">
+        <v>26935</v>
+      </c>
+      <c r="F171" s="48">
+        <v>26935</v>
+      </c>
       <c r="G171" s="48">
         <v>26935</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H171" s="48">
+        <v>26935</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>17</v>
       </c>
@@ -5853,13 +7042,20 @@
       <c r="D172" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="E172" s="48"/>
-      <c r="F172" s="48"/>
+      <c r="E172" s="48">
+        <v>8069</v>
+      </c>
+      <c r="F172" s="48">
+        <v>8069</v>
+      </c>
       <c r="G172" s="48">
         <v>8069</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H172" s="48">
+        <v>8069</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>9</v>
       </c>
@@ -5872,13 +7068,20 @@
       <c r="D173" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="E173" s="48"/>
-      <c r="F173" s="48"/>
+      <c r="E173" s="48">
+        <v>4175</v>
+      </c>
+      <c r="F173" s="48">
+        <v>4175</v>
+      </c>
       <c r="G173" s="48">
         <v>4175</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H173" s="48">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>9</v>
       </c>
@@ -5891,13 +7094,20 @@
       <c r="D174" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="E174" s="48"/>
-      <c r="F174" s="48"/>
+      <c r="E174" s="48">
+        <v>10134</v>
+      </c>
+      <c r="F174" s="48">
+        <v>10134</v>
+      </c>
       <c r="G174" s="48">
         <v>10134</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H174" s="48">
+        <v>10134</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>9</v>
       </c>
@@ -5910,13 +7120,20 @@
       <c r="D175" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="E175" s="48"/>
-      <c r="F175" s="48"/>
+      <c r="E175" s="48">
+        <v>8141</v>
+      </c>
+      <c r="F175" s="48">
+        <v>8141</v>
+      </c>
       <c r="G175" s="48">
         <v>8141</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H175" s="48">
+        <v>8141</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>9</v>
       </c>
@@ -5929,13 +7146,20 @@
       <c r="D176" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="E176" s="48"/>
-      <c r="F176" s="48"/>
+      <c r="E176" s="48">
+        <v>13660</v>
+      </c>
+      <c r="F176" s="48">
+        <v>13660</v>
+      </c>
       <c r="G176" s="48">
         <v>13660</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H176" s="48">
+        <v>13660</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>9</v>
       </c>
@@ -5948,13 +7172,20 @@
       <c r="D177" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="E177" s="48"/>
-      <c r="F177" s="48"/>
+      <c r="E177" s="48">
+        <v>37882</v>
+      </c>
+      <c r="F177" s="48">
+        <v>37882</v>
+      </c>
       <c r="G177" s="48">
         <v>37882</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H177" s="48">
+        <v>37882</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>9</v>
       </c>
@@ -5967,13 +7198,20 @@
       <c r="D178" s="48" t="s">
         <v>430</v>
       </c>
-      <c r="E178" s="48"/>
-      <c r="F178" s="48"/>
+      <c r="E178" s="48">
+        <v>19352</v>
+      </c>
+      <c r="F178" s="48">
+        <v>19352</v>
+      </c>
       <c r="G178" s="48">
         <v>19352</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H178" s="48">
+        <v>19352</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>9</v>
       </c>
@@ -5986,13 +7224,20 @@
       <c r="D179" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="E179" s="48"/>
-      <c r="F179" s="48"/>
+      <c r="E179" s="48">
+        <v>7084</v>
+      </c>
+      <c r="F179" s="48">
+        <v>7084</v>
+      </c>
       <c r="G179" s="48">
         <v>7084</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H179" s="48">
+        <v>7084</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>9</v>
       </c>
@@ -6005,13 +7250,20 @@
       <c r="D180" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="E180" s="48"/>
-      <c r="F180" s="48"/>
+      <c r="E180" s="48">
+        <v>11053</v>
+      </c>
+      <c r="F180" s="48">
+        <v>11053</v>
+      </c>
       <c r="G180" s="48">
         <v>11053</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H180" s="48">
+        <v>11053</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>9</v>
       </c>
@@ -6024,13 +7276,20 @@
       <c r="D181" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="E181" s="48"/>
-      <c r="F181" s="48"/>
+      <c r="E181" s="48">
+        <v>8284</v>
+      </c>
+      <c r="F181" s="48">
+        <v>8284</v>
+      </c>
       <c r="G181" s="48">
         <v>8284</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H181" s="48">
+        <v>8284</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>9</v>
       </c>
@@ -6043,13 +7302,20 @@
       <c r="D182" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="E182" s="48"/>
-      <c r="F182" s="48"/>
+      <c r="E182" s="48">
+        <v>16760</v>
+      </c>
+      <c r="F182" s="48">
+        <v>16760</v>
+      </c>
       <c r="G182" s="48">
         <v>16760</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H182" s="48">
+        <v>16760</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>9</v>
       </c>
@@ -6062,13 +7328,20 @@
       <c r="D183" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="E183" s="48"/>
-      <c r="F183" s="48"/>
+      <c r="E183" s="48">
+        <v>6083</v>
+      </c>
+      <c r="F183" s="48">
+        <v>6083</v>
+      </c>
       <c r="G183" s="48">
         <v>6083</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H183" s="48">
+        <v>6083</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>9</v>
       </c>
@@ -6081,13 +7354,20 @@
       <c r="D184" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="E184" s="48"/>
-      <c r="F184" s="48"/>
+      <c r="E184" s="48">
+        <v>7169</v>
+      </c>
+      <c r="F184" s="48">
+        <v>7169</v>
+      </c>
       <c r="G184" s="48">
         <v>7169</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H184" s="48">
+        <v>7169</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>9</v>
       </c>
@@ -6100,13 +7380,20 @@
       <c r="D185" s="48" t="s">
         <v>431</v>
       </c>
-      <c r="E185" s="48"/>
-      <c r="F185" s="48"/>
+      <c r="E185" s="48">
+        <v>11935</v>
+      </c>
+      <c r="F185" s="48">
+        <v>11935</v>
+      </c>
       <c r="G185" s="48">
         <v>11935</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H185" s="48">
+        <v>11935</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>9</v>
       </c>
@@ -6119,13 +7406,20 @@
       <c r="D186" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="E186" s="48"/>
-      <c r="F186" s="48"/>
+      <c r="E186" s="48">
+        <v>8193</v>
+      </c>
+      <c r="F186" s="48">
+        <v>8193</v>
+      </c>
       <c r="G186" s="48">
         <v>8193</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H186" s="48">
+        <v>8193</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>9</v>
       </c>
@@ -6138,13 +7432,20 @@
       <c r="D187" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="E187" s="48"/>
-      <c r="F187" s="48"/>
+      <c r="E187" s="48">
+        <v>52571</v>
+      </c>
+      <c r="F187" s="48">
+        <v>52571</v>
+      </c>
       <c r="G187" s="48">
         <v>52571</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H187" s="48">
+        <v>52571</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>9</v>
       </c>
@@ -6157,13 +7458,20 @@
       <c r="D188" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="E188" s="48"/>
-      <c r="F188" s="48"/>
+      <c r="E188" s="48">
+        <v>6036</v>
+      </c>
+      <c r="F188" s="48">
+        <v>6036</v>
+      </c>
       <c r="G188" s="48">
         <v>6036</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H188" s="48">
+        <v>6036</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>9</v>
       </c>
@@ -6176,13 +7484,20 @@
       <c r="D189" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="E189" s="48"/>
-      <c r="F189" s="48"/>
+      <c r="E189" s="48">
+        <v>11477</v>
+      </c>
+      <c r="F189" s="48">
+        <v>11477</v>
+      </c>
       <c r="G189" s="48">
         <v>11477</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H189" s="48">
+        <v>11477</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>9</v>
       </c>
@@ -6195,13 +7510,20 @@
       <c r="D190" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="E190" s="48"/>
-      <c r="F190" s="48"/>
+      <c r="E190" s="48">
+        <v>3283</v>
+      </c>
+      <c r="F190" s="48">
+        <v>3283</v>
+      </c>
       <c r="G190" s="48">
         <v>3283</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H190" s="48">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>9</v>
       </c>
@@ -6214,13 +7536,20 @@
       <c r="D191" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="E191" s="48"/>
-      <c r="F191" s="48"/>
+      <c r="E191" s="48">
+        <v>21627</v>
+      </c>
+      <c r="F191" s="48">
+        <v>21627</v>
+      </c>
       <c r="G191" s="48">
         <v>21627</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H191" s="48">
+        <v>21627</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>9</v>
       </c>
@@ -6233,13 +7562,20 @@
       <c r="D192" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="E192" s="48"/>
-      <c r="F192" s="48"/>
+      <c r="E192" s="48">
+        <v>12553</v>
+      </c>
+      <c r="F192" s="48">
+        <v>12553</v>
+      </c>
       <c r="G192" s="48">
         <v>12553</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H192" s="48">
+        <v>12553</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>9</v>
       </c>
@@ -6252,13 +7588,20 @@
       <c r="D193" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="E193" s="48"/>
-      <c r="F193" s="48"/>
+      <c r="E193" s="48">
+        <v>2745</v>
+      </c>
+      <c r="F193" s="48">
+        <v>2745</v>
+      </c>
       <c r="G193" s="48">
         <v>2745</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H193" s="48">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>9</v>
       </c>
@@ -6271,13 +7614,20 @@
       <c r="D194" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="E194" s="48"/>
-      <c r="F194" s="48"/>
+      <c r="E194" s="48">
+        <v>4022</v>
+      </c>
+      <c r="F194" s="48">
+        <v>4022</v>
+      </c>
       <c r="G194" s="48">
         <v>4022</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H194" s="48">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>9</v>
       </c>
@@ -6290,13 +7640,20 @@
       <c r="D195" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="E195" s="48"/>
-      <c r="F195" s="48"/>
+      <c r="E195" s="48">
+        <v>2814</v>
+      </c>
+      <c r="F195" s="48">
+        <v>2814</v>
+      </c>
       <c r="G195" s="48">
         <v>2814</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H195" s="48">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>9</v>
       </c>
@@ -6309,13 +7666,20 @@
       <c r="D196" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="E196" s="48"/>
-      <c r="F196" s="48"/>
+      <c r="E196" s="48">
+        <v>4207</v>
+      </c>
+      <c r="F196" s="48">
+        <v>4207</v>
+      </c>
       <c r="G196" s="48">
         <v>4207</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H196" s="48">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>14</v>
       </c>
@@ -6328,13 +7692,20 @@
       <c r="D197" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="E197" s="48"/>
-      <c r="F197" s="48"/>
+      <c r="E197" s="48">
+        <v>4458</v>
+      </c>
+      <c r="F197" s="48">
+        <v>4458</v>
+      </c>
       <c r="G197" s="48">
         <v>4458</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H197" s="48">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>14</v>
       </c>
@@ -6347,13 +7718,20 @@
       <c r="D198" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="E198" s="48"/>
-      <c r="F198" s="48"/>
+      <c r="E198" s="48">
+        <v>18159</v>
+      </c>
+      <c r="F198" s="48">
+        <v>18159</v>
+      </c>
       <c r="G198" s="48">
         <v>18159</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H198" s="48">
+        <v>18159</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>14</v>
       </c>
@@ -6366,13 +7744,20 @@
       <c r="D199" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="E199" s="48"/>
-      <c r="F199" s="48"/>
+      <c r="E199" s="48">
+        <v>12326</v>
+      </c>
+      <c r="F199" s="48">
+        <v>12326</v>
+      </c>
       <c r="G199" s="48">
         <v>12326</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H199" s="48">
+        <v>12326</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>14</v>
       </c>
@@ -6385,13 +7770,20 @@
       <c r="D200" s="48" t="s">
         <v>432</v>
       </c>
-      <c r="E200" s="48"/>
-      <c r="F200" s="48"/>
+      <c r="E200" s="48">
+        <v>54016</v>
+      </c>
+      <c r="F200" s="48">
+        <v>54016</v>
+      </c>
       <c r="G200" s="48">
         <v>54016</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H200" s="48">
+        <v>54016</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>14</v>
       </c>
@@ -6404,13 +7796,20 @@
       <c r="D201" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="E201" s="48"/>
-      <c r="F201" s="48"/>
+      <c r="E201" s="48">
+        <v>4800</v>
+      </c>
+      <c r="F201" s="48">
+        <v>4800</v>
+      </c>
       <c r="G201" s="48">
         <v>4800</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H201" s="48">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>14</v>
       </c>
@@ -6423,13 +7822,20 @@
       <c r="D202" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="E202" s="48"/>
-      <c r="F202" s="48"/>
+      <c r="E202" s="48">
+        <v>20089</v>
+      </c>
+      <c r="F202" s="48">
+        <v>20089</v>
+      </c>
       <c r="G202" s="48">
         <v>20089</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H202" s="48">
+        <v>20089</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>14</v>
       </c>
@@ -6442,13 +7848,20 @@
       <c r="D203" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="E203" s="48"/>
-      <c r="F203" s="48"/>
+      <c r="E203" s="48">
+        <v>43911</v>
+      </c>
+      <c r="F203" s="48">
+        <v>43911</v>
+      </c>
       <c r="G203" s="48">
         <v>43911</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H203" s="48">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>14</v>
       </c>
@@ -6461,13 +7874,20 @@
       <c r="D204" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="E204" s="48"/>
-      <c r="F204" s="48"/>
+      <c r="E204" s="48">
+        <v>3121</v>
+      </c>
+      <c r="F204" s="48">
+        <v>3121</v>
+      </c>
       <c r="G204" s="48">
         <v>3121</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H204" s="48">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>14</v>
       </c>
@@ -6480,13 +7900,20 @@
       <c r="D205" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="E205" s="48"/>
-      <c r="F205" s="48"/>
+      <c r="E205" s="48">
+        <v>3071</v>
+      </c>
+      <c r="F205" s="48">
+        <v>3071</v>
+      </c>
       <c r="G205" s="48">
         <v>3071</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H205" s="48">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>14</v>
       </c>
@@ -6499,13 +7926,20 @@
       <c r="D206" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="E206" s="48"/>
-      <c r="F206" s="48"/>
+      <c r="E206" s="48">
+        <v>21646</v>
+      </c>
+      <c r="F206" s="48">
+        <v>21646</v>
+      </c>
       <c r="G206" s="48">
         <v>21646</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H206" s="48">
+        <v>21646</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>14</v>
       </c>
@@ -6518,13 +7952,20 @@
       <c r="D207" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="E207" s="48"/>
-      <c r="F207" s="48"/>
+      <c r="E207" s="48">
+        <v>9689</v>
+      </c>
+      <c r="F207" s="48">
+        <v>9689</v>
+      </c>
       <c r="G207" s="48">
         <v>9689</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H207" s="48">
+        <v>9689</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>14</v>
       </c>
@@ -6537,13 +7978,20 @@
       <c r="D208" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="E208" s="48"/>
-      <c r="F208" s="48"/>
+      <c r="E208" s="48">
+        <v>12927</v>
+      </c>
+      <c r="F208" s="48">
+        <v>12927</v>
+      </c>
       <c r="G208" s="48">
         <v>12927</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H208" s="48">
+        <v>12927</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>14</v>
       </c>
@@ -6556,13 +8004,20 @@
       <c r="D209" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="E209" s="48"/>
-      <c r="F209" s="48"/>
+      <c r="E209" s="48">
+        <v>6524</v>
+      </c>
+      <c r="F209" s="48">
+        <v>6524</v>
+      </c>
       <c r="G209" s="48">
         <v>6524</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H209" s="48">
+        <v>6524</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>14</v>
       </c>
@@ -6575,13 +8030,20 @@
       <c r="D210" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="E210" s="48"/>
-      <c r="F210" s="48"/>
+      <c r="E210" s="48">
+        <v>30760</v>
+      </c>
+      <c r="F210" s="48">
+        <v>30760</v>
+      </c>
       <c r="G210" s="48">
         <v>30760</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H210" s="48">
+        <v>30760</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>14</v>
       </c>
@@ -6594,13 +8056,20 @@
       <c r="D211" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="E211" s="48"/>
-      <c r="F211" s="48"/>
+      <c r="E211" s="48">
+        <v>14951</v>
+      </c>
+      <c r="F211" s="48">
+        <v>14951</v>
+      </c>
       <c r="G211" s="48">
         <v>14951</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H211" s="48">
+        <v>14951</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>14</v>
       </c>
@@ -6613,13 +8082,20 @@
       <c r="D212" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="E212" s="48"/>
-      <c r="F212" s="48"/>
+      <c r="E212" s="48">
+        <v>32934</v>
+      </c>
+      <c r="F212" s="48">
+        <v>32934</v>
+      </c>
       <c r="G212" s="48">
         <v>32934</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H212" s="48">
+        <v>32934</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>14</v>
       </c>
@@ -6632,13 +8108,20 @@
       <c r="D213" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="E213" s="48"/>
-      <c r="F213" s="48"/>
+      <c r="E213" s="48">
+        <v>15149</v>
+      </c>
+      <c r="F213" s="48">
+        <v>15149</v>
+      </c>
       <c r="G213" s="48">
         <v>15149</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H213" s="48">
+        <v>15149</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>11</v>
       </c>
@@ -6651,13 +8134,20 @@
       <c r="D214" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="E214" s="48"/>
-      <c r="F214" s="48"/>
+      <c r="E214" s="48">
+        <v>12656</v>
+      </c>
+      <c r="F214" s="48">
+        <v>12656</v>
+      </c>
       <c r="G214" s="48">
         <v>12656</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H214" s="48">
+        <v>12656</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>11</v>
       </c>
@@ -6670,13 +8160,20 @@
       <c r="D215" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="E215" s="48"/>
-      <c r="F215" s="48"/>
+      <c r="E215" s="48">
+        <v>13636</v>
+      </c>
+      <c r="F215" s="48">
+        <v>13636</v>
+      </c>
       <c r="G215" s="48">
         <v>13636</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H215" s="48">
+        <v>13636</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>11</v>
       </c>
@@ -6689,13 +8186,20 @@
       <c r="D216" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="E216" s="48"/>
-      <c r="F216" s="48"/>
+      <c r="E216" s="48">
+        <v>13582</v>
+      </c>
+      <c r="F216" s="48">
+        <v>13582</v>
+      </c>
       <c r="G216" s="48">
         <v>13582</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H216" s="48">
+        <v>13582</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>11</v>
       </c>
@@ -6708,13 +8212,20 @@
       <c r="D217" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="E217" s="48"/>
-      <c r="F217" s="48"/>
+      <c r="E217" s="48">
+        <v>32554</v>
+      </c>
+      <c r="F217" s="48">
+        <v>32554</v>
+      </c>
       <c r="G217" s="48">
         <v>32554</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H217" s="48">
+        <v>32554</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>11</v>
       </c>
@@ -6727,13 +8238,20 @@
       <c r="D218" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="E218" s="48"/>
-      <c r="F218" s="48"/>
+      <c r="E218" s="48">
+        <v>19885</v>
+      </c>
+      <c r="F218" s="48">
+        <v>19885</v>
+      </c>
       <c r="G218" s="48">
         <v>19885</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H218" s="48">
+        <v>19885</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>11</v>
       </c>
@@ -6746,13 +8264,20 @@
       <c r="D219" s="48" t="s">
         <v>437</v>
       </c>
-      <c r="E219" s="48"/>
-      <c r="F219" s="48"/>
+      <c r="E219" s="48">
+        <v>8151</v>
+      </c>
+      <c r="F219" s="48">
+        <v>8151</v>
+      </c>
       <c r="G219" s="48">
         <v>8151</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H219" s="48">
+        <v>8151</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>11</v>
       </c>
@@ -6765,13 +8290,20 @@
       <c r="D220" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="E220" s="48"/>
-      <c r="F220" s="48"/>
+      <c r="E220" s="48">
+        <v>4134</v>
+      </c>
+      <c r="F220" s="48">
+        <v>4134</v>
+      </c>
       <c r="G220" s="48">
         <v>4134</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H220" s="48">
+        <v>4134</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>11</v>
       </c>
@@ -6784,13 +8316,20 @@
       <c r="D221" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="E221" s="48"/>
-      <c r="F221" s="48"/>
+      <c r="E221" s="48">
+        <v>8915</v>
+      </c>
+      <c r="F221" s="48">
+        <v>8915</v>
+      </c>
       <c r="G221" s="48">
         <v>8915</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H221" s="48">
+        <v>8915</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>11</v>
       </c>
@@ -6803,13 +8342,20 @@
       <c r="D222" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="E222" s="48"/>
-      <c r="F222" s="48"/>
+      <c r="E222" s="48">
+        <v>5208</v>
+      </c>
+      <c r="F222" s="48">
+        <v>5208</v>
+      </c>
       <c r="G222" s="48">
         <v>5208</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H222" s="48">
+        <v>5208</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>3</v>
       </c>
@@ -6822,13 +8368,20 @@
       <c r="D223" s="48" t="s">
         <v>433</v>
       </c>
-      <c r="E223" s="48"/>
-      <c r="F223" s="48"/>
+      <c r="E223" s="48">
+        <v>8069</v>
+      </c>
+      <c r="F223" s="48">
+        <v>8069</v>
+      </c>
       <c r="G223" s="48">
         <v>8069</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H223" s="48">
+        <v>8069</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>3</v>
       </c>
@@ -6841,13 +8394,20 @@
       <c r="D224" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="E224" s="48"/>
-      <c r="F224" s="48"/>
+      <c r="E224" s="48">
+        <v>12692</v>
+      </c>
+      <c r="F224" s="48">
+        <v>12692</v>
+      </c>
       <c r="G224" s="48">
         <v>12692</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H224" s="48">
+        <v>12692</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>3</v>
       </c>
@@ -6860,13 +8420,20 @@
       <c r="D225" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="E225" s="48"/>
-      <c r="F225" s="48"/>
+      <c r="E225" s="48">
+        <v>10472</v>
+      </c>
+      <c r="F225" s="48">
+        <v>10472</v>
+      </c>
       <c r="G225" s="48">
         <v>10472</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H225" s="48">
+        <v>10472</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>3</v>
       </c>
@@ -6879,13 +8446,20 @@
       <c r="D226" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="E226" s="48"/>
-      <c r="F226" s="48"/>
+      <c r="E226" s="48">
+        <v>5180</v>
+      </c>
+      <c r="F226" s="48">
+        <v>5180</v>
+      </c>
       <c r="G226" s="48">
         <v>5180</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H226" s="48">
+        <v>5180</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>3</v>
       </c>
@@ -6898,13 +8472,20 @@
       <c r="D227" s="48" t="s">
         <v>307</v>
       </c>
-      <c r="E227" s="48"/>
-      <c r="F227" s="48"/>
+      <c r="E227" s="48">
+        <v>3331</v>
+      </c>
+      <c r="F227" s="48">
+        <v>3331</v>
+      </c>
       <c r="G227" s="48">
         <v>3331</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H227" s="48">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>3</v>
       </c>
@@ -6917,13 +8498,20 @@
       <c r="D228" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="E228" s="48"/>
-      <c r="F228" s="48"/>
+      <c r="E228" s="48">
+        <v>5315</v>
+      </c>
+      <c r="F228" s="48">
+        <v>5315</v>
+      </c>
       <c r="G228" s="48">
         <v>5315</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H228" s="48">
+        <v>5315</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>3</v>
       </c>
@@ -6936,13 +8524,20 @@
       <c r="D229" s="48" t="s">
         <v>309</v>
       </c>
-      <c r="E229" s="48"/>
-      <c r="F229" s="48"/>
+      <c r="E229" s="48">
+        <v>3241</v>
+      </c>
+      <c r="F229" s="48">
+        <v>3241</v>
+      </c>
       <c r="G229" s="48">
         <v>3241</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H229" s="48">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>3</v>
       </c>
@@ -6955,13 +8550,20 @@
       <c r="D230" s="48" t="s">
         <v>310</v>
       </c>
-      <c r="E230" s="48"/>
-      <c r="F230" s="48"/>
+      <c r="E230" s="48">
+        <v>2227</v>
+      </c>
+      <c r="F230" s="48">
+        <v>2227</v>
+      </c>
       <c r="G230" s="48">
         <v>2227</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H230" s="48">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>3</v>
       </c>
@@ -6974,13 +8576,20 @@
       <c r="D231" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="E231" s="48"/>
-      <c r="F231" s="48"/>
+      <c r="E231" s="48">
+        <v>6708</v>
+      </c>
+      <c r="F231" s="48">
+        <v>6708</v>
+      </c>
       <c r="G231" s="48">
         <v>6708</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H231" s="48">
+        <v>6708</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>3</v>
       </c>
@@ -6993,13 +8602,20 @@
       <c r="D232" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="E232" s="48"/>
-      <c r="F232" s="48"/>
+      <c r="E232" s="48">
+        <v>4136</v>
+      </c>
+      <c r="F232" s="48">
+        <v>4136</v>
+      </c>
       <c r="G232" s="48">
         <v>4136</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H232" s="48">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>3</v>
       </c>
@@ -7012,13 +8628,20 @@
       <c r="D233" s="48" t="s">
         <v>313</v>
       </c>
-      <c r="E233" s="48"/>
-      <c r="F233" s="48"/>
+      <c r="E233" s="48">
+        <v>1145</v>
+      </c>
+      <c r="F233" s="48">
+        <v>1145</v>
+      </c>
       <c r="G233" s="48">
         <v>1145</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H233" s="48">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>3</v>
       </c>
@@ -7031,13 +8654,20 @@
       <c r="D234" s="48" t="s">
         <v>314</v>
       </c>
-      <c r="E234" s="48"/>
-      <c r="F234" s="48"/>
+      <c r="E234" s="48">
+        <v>4340</v>
+      </c>
+      <c r="F234" s="48">
+        <v>4340</v>
+      </c>
       <c r="G234" s="48">
         <v>4340</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H234" s="48">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>3</v>
       </c>
@@ -7050,13 +8680,20 @@
       <c r="D235" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="E235" s="48"/>
-      <c r="F235" s="48"/>
+      <c r="E235" s="48">
+        <v>8404</v>
+      </c>
+      <c r="F235" s="48">
+        <v>8404</v>
+      </c>
       <c r="G235" s="48">
         <v>8404</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H235" s="48">
+        <v>8404</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>3</v>
       </c>
@@ -7069,13 +8706,20 @@
       <c r="D236" s="48" t="s">
         <v>316</v>
       </c>
-      <c r="E236" s="48"/>
-      <c r="F236" s="48"/>
+      <c r="E236" s="48">
+        <v>9801</v>
+      </c>
+      <c r="F236" s="48">
+        <v>9801</v>
+      </c>
       <c r="G236" s="48">
         <v>9801</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H236" s="48">
+        <v>9801</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>3</v>
       </c>
@@ -7088,13 +8732,20 @@
       <c r="D237" s="48" t="s">
         <v>317</v>
       </c>
-      <c r="E237" s="48"/>
-      <c r="F237" s="48"/>
+      <c r="E237" s="48">
+        <v>4121</v>
+      </c>
+      <c r="F237" s="48">
+        <v>4121</v>
+      </c>
       <c r="G237" s="48">
         <v>4121</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H237" s="48">
+        <v>4121</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>3</v>
       </c>
@@ -7107,13 +8758,20 @@
       <c r="D238" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="E238" s="48"/>
-      <c r="F238" s="48"/>
+      <c r="E238" s="48">
+        <v>13074</v>
+      </c>
+      <c r="F238" s="48">
+        <v>13074</v>
+      </c>
       <c r="G238" s="48">
         <v>13074</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H238" s="48">
+        <v>13074</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>12</v>
       </c>
@@ -7126,13 +8784,20 @@
       <c r="D239" s="48" t="s">
         <v>320</v>
       </c>
-      <c r="E239" s="48"/>
-      <c r="F239" s="48"/>
+      <c r="E239" s="48">
+        <v>15000</v>
+      </c>
+      <c r="F239" s="48">
+        <v>15000</v>
+      </c>
       <c r="G239" s="48">
         <v>15000</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H239" s="48">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>12</v>
       </c>
@@ -7145,13 +8810,20 @@
       <c r="D240" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="E240" s="48"/>
-      <c r="F240" s="48"/>
+      <c r="E240" s="48">
+        <v>10152</v>
+      </c>
+      <c r="F240" s="48">
+        <v>10152</v>
+      </c>
       <c r="G240" s="48">
         <v>10152</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H240" s="48">
+        <v>10152</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>12</v>
       </c>
@@ -7164,13 +8836,20 @@
       <c r="D241" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="E241" s="48"/>
-      <c r="F241" s="48"/>
+      <c r="E241" s="48">
+        <v>34083</v>
+      </c>
+      <c r="F241" s="48">
+        <v>34083</v>
+      </c>
       <c r="G241" s="48">
         <v>34083</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H241" s="48">
+        <v>34083</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>12</v>
       </c>
@@ -7183,13 +8862,20 @@
       <c r="D242" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="E242" s="48"/>
-      <c r="F242" s="48"/>
+      <c r="E242" s="48">
+        <v>35396</v>
+      </c>
+      <c r="F242" s="48">
+        <v>35396</v>
+      </c>
       <c r="G242" s="48">
         <v>35396</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H242" s="48">
+        <v>35396</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>12</v>
       </c>
@@ -7202,13 +8888,20 @@
       <c r="D243" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="E243" s="48"/>
-      <c r="F243" s="48"/>
+      <c r="E243" s="48">
+        <v>9284</v>
+      </c>
+      <c r="F243" s="48">
+        <v>9284</v>
+      </c>
       <c r="G243" s="48">
         <v>9284</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H243" s="48">
+        <v>9284</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>12</v>
       </c>
@@ -7221,13 +8914,20 @@
       <c r="D244" s="48" t="s">
         <v>434</v>
       </c>
-      <c r="E244" s="48"/>
-      <c r="F244" s="48"/>
+      <c r="E244" s="48">
+        <v>6366</v>
+      </c>
+      <c r="F244" s="48">
+        <v>6366</v>
+      </c>
       <c r="G244" s="48">
         <v>6366</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H244" s="48">
+        <v>6366</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>12</v>
       </c>
@@ -7240,13 +8940,20 @@
       <c r="D245" s="48" t="s">
         <v>325</v>
       </c>
-      <c r="E245" s="48"/>
-      <c r="F245" s="48"/>
+      <c r="E245" s="48">
+        <v>17677</v>
+      </c>
+      <c r="F245" s="48">
+        <v>17677</v>
+      </c>
       <c r="G245" s="48">
         <v>17677</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H245" s="48">
+        <v>17677</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>12</v>
       </c>
@@ -7259,13 +8966,20 @@
       <c r="D246" s="48" t="s">
         <v>326</v>
       </c>
-      <c r="E246" s="48"/>
-      <c r="F246" s="48"/>
+      <c r="E246" s="48">
+        <v>4938</v>
+      </c>
+      <c r="F246" s="48">
+        <v>4938</v>
+      </c>
       <c r="G246" s="48">
         <v>4938</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H246" s="48">
+        <v>4938</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>12</v>
       </c>
@@ -7278,13 +8992,20 @@
       <c r="D247" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="E247" s="48"/>
-      <c r="F247" s="48"/>
+      <c r="E247" s="48">
+        <v>9580</v>
+      </c>
+      <c r="F247" s="48">
+        <v>9580</v>
+      </c>
       <c r="G247" s="48">
         <v>9580</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H247" s="48">
+        <v>9580</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>12</v>
       </c>
@@ -7297,13 +9018,20 @@
       <c r="D248" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="E248" s="48"/>
-      <c r="F248" s="48"/>
+      <c r="E248" s="48">
+        <v>11860</v>
+      </c>
+      <c r="F248" s="48">
+        <v>11860</v>
+      </c>
       <c r="G248" s="48">
         <v>11860</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H248" s="48">
+        <v>11860</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>12</v>
       </c>
@@ -7316,13 +9044,20 @@
       <c r="D249" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="E249" s="48"/>
-      <c r="F249" s="48"/>
+      <c r="E249" s="48">
+        <v>8505</v>
+      </c>
+      <c r="F249" s="48">
+        <v>8505</v>
+      </c>
       <c r="G249" s="48">
         <v>8505</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H249" s="48">
+        <v>8505</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>12</v>
       </c>
@@ -7335,13 +9070,20 @@
       <c r="D250" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="E250" s="48"/>
-      <c r="F250" s="48"/>
+      <c r="E250" s="48">
+        <v>37234</v>
+      </c>
+      <c r="F250" s="48">
+        <v>37234</v>
+      </c>
       <c r="G250" s="48">
         <v>37234</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H250" s="48">
+        <v>37234</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>12</v>
       </c>
@@ -7354,13 +9096,20 @@
       <c r="D251" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="E251" s="48"/>
-      <c r="F251" s="48"/>
+      <c r="E251" s="48">
+        <v>10999</v>
+      </c>
+      <c r="F251" s="48">
+        <v>10999</v>
+      </c>
       <c r="G251" s="48">
         <v>10999</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H251" s="48">
+        <v>10999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>12</v>
       </c>
@@ -7373,13 +9122,20 @@
       <c r="D252" s="48" t="s">
         <v>332</v>
       </c>
-      <c r="E252" s="48"/>
-      <c r="F252" s="48"/>
+      <c r="E252" s="48">
+        <v>4105</v>
+      </c>
+      <c r="F252" s="48">
+        <v>4105</v>
+      </c>
       <c r="G252" s="48">
         <v>4105</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H252" s="48">
+        <v>4105</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>12</v>
       </c>
@@ -7392,13 +9148,20 @@
       <c r="D253" s="48" t="s">
         <v>333</v>
       </c>
-      <c r="E253" s="48"/>
-      <c r="F253" s="48"/>
+      <c r="E253" s="48">
+        <v>7489</v>
+      </c>
+      <c r="F253" s="48">
+        <v>7489</v>
+      </c>
       <c r="G253" s="48">
         <v>7489</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H253" s="48">
+        <v>7489</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>12</v>
       </c>
@@ -7411,13 +9174,20 @@
       <c r="D254" s="48" t="s">
         <v>334</v>
       </c>
-      <c r="E254" s="48"/>
-      <c r="F254" s="48"/>
+      <c r="E254" s="48">
+        <v>2004</v>
+      </c>
+      <c r="F254" s="48">
+        <v>2004</v>
+      </c>
       <c r="G254" s="48">
         <v>2004</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H254" s="48">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>12</v>
       </c>
@@ -7430,13 +9200,20 @@
       <c r="D255" s="48" t="s">
         <v>335</v>
       </c>
-      <c r="E255" s="48"/>
-      <c r="F255" s="48"/>
+      <c r="E255" s="48">
+        <v>7211</v>
+      </c>
+      <c r="F255" s="48">
+        <v>7211</v>
+      </c>
       <c r="G255" s="48">
         <v>7211</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H255" s="48">
+        <v>7211</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>12</v>
       </c>
@@ -7449,13 +9226,20 @@
       <c r="D256" s="48" t="s">
         <v>336</v>
       </c>
-      <c r="E256" s="48"/>
-      <c r="F256" s="48"/>
+      <c r="E256" s="48">
+        <v>6352</v>
+      </c>
+      <c r="F256" s="48">
+        <v>6352</v>
+      </c>
       <c r="G256" s="48">
         <v>6352</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H256" s="48">
+        <v>6352</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>12</v>
       </c>
@@ -7468,13 +9252,20 @@
       <c r="D257" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="E257" s="48"/>
-      <c r="F257" s="48"/>
+      <c r="E257" s="48">
+        <v>8647</v>
+      </c>
+      <c r="F257" s="48">
+        <v>8647</v>
+      </c>
       <c r="G257" s="48">
         <v>8647</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H257" s="48">
+        <v>8647</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>12</v>
       </c>
@@ -7487,13 +9278,20 @@
       <c r="D258" s="48" t="s">
         <v>338</v>
       </c>
-      <c r="E258" s="48"/>
-      <c r="F258" s="48"/>
+      <c r="E258" s="48">
+        <v>5035</v>
+      </c>
+      <c r="F258" s="48">
+        <v>5035</v>
+      </c>
       <c r="G258" s="48">
         <v>5035</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H258" s="48">
+        <v>5035</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>12</v>
       </c>
@@ -7506,13 +9304,20 @@
       <c r="D259" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="E259" s="48"/>
-      <c r="F259" s="48"/>
+      <c r="E259" s="48">
+        <v>14737</v>
+      </c>
+      <c r="F259" s="48">
+        <v>14737</v>
+      </c>
       <c r="G259" s="48">
         <v>14737</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H259" s="48">
+        <v>14737</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>12</v>
       </c>
@@ -7525,13 +9330,20 @@
       <c r="D260" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="E260" s="48"/>
-      <c r="F260" s="48"/>
+      <c r="E260" s="48">
+        <v>22620</v>
+      </c>
+      <c r="F260" s="48">
+        <v>22620</v>
+      </c>
       <c r="G260" s="48">
         <v>22620</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H260" s="48">
+        <v>22620</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>12</v>
       </c>
@@ -7544,13 +9356,20 @@
       <c r="D261" s="48" t="s">
         <v>340</v>
       </c>
-      <c r="E261" s="48"/>
-      <c r="F261" s="48"/>
+      <c r="E261" s="48">
+        <v>17991</v>
+      </c>
+      <c r="F261" s="48">
+        <v>17991</v>
+      </c>
       <c r="G261" s="48">
         <v>17991</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H261" s="48">
+        <v>17991</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>12</v>
       </c>
@@ -7563,13 +9382,20 @@
       <c r="D262" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="E262" s="48"/>
-      <c r="F262" s="48"/>
+      <c r="E262" s="48">
+        <v>25211</v>
+      </c>
+      <c r="F262" s="48">
+        <v>25211</v>
+      </c>
       <c r="G262" s="48">
         <v>25211</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H262" s="48">
+        <v>25211</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>12</v>
       </c>
@@ -7582,13 +9408,20 @@
       <c r="D263" s="48" t="s">
         <v>341</v>
       </c>
-      <c r="E263" s="48"/>
-      <c r="F263" s="48"/>
+      <c r="E263" s="48">
+        <v>5821</v>
+      </c>
+      <c r="F263" s="48">
+        <v>5821</v>
+      </c>
       <c r="G263" s="48">
         <v>5821</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H263" s="48">
+        <v>5821</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>12</v>
       </c>
@@ -7601,13 +9434,20 @@
       <c r="D264" s="48" t="s">
         <v>342</v>
       </c>
-      <c r="E264" s="48"/>
-      <c r="F264" s="48"/>
+      <c r="E264" s="48">
+        <v>6716</v>
+      </c>
+      <c r="F264" s="48">
+        <v>6716</v>
+      </c>
       <c r="G264" s="48">
         <v>6716</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H264" s="48">
+        <v>6716</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>12</v>
       </c>
@@ -7620,13 +9460,20 @@
       <c r="D265" s="48" t="s">
         <v>343</v>
       </c>
-      <c r="E265" s="48"/>
-      <c r="F265" s="48"/>
+      <c r="E265" s="48">
+        <v>11566</v>
+      </c>
+      <c r="F265" s="48">
+        <v>11566</v>
+      </c>
       <c r="G265" s="48">
         <v>11566</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H265" s="48">
+        <v>11566</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>12</v>
       </c>
@@ -7639,13 +9486,20 @@
       <c r="D266" s="48" t="s">
         <v>344</v>
       </c>
-      <c r="E266" s="48"/>
-      <c r="F266" s="48"/>
+      <c r="E266" s="48">
+        <v>31066</v>
+      </c>
+      <c r="F266" s="48">
+        <v>31066</v>
+      </c>
       <c r="G266" s="48">
         <v>31066</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H266" s="48">
+        <v>31066</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>12</v>
       </c>
@@ -7658,13 +9512,20 @@
       <c r="D267" s="48" t="s">
         <v>345</v>
       </c>
-      <c r="E267" s="48"/>
-      <c r="F267" s="48"/>
+      <c r="E267" s="48">
+        <v>25987</v>
+      </c>
+      <c r="F267" s="48">
+        <v>25987</v>
+      </c>
       <c r="G267" s="48">
         <v>25987</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H267" s="48">
+        <v>25987</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>12</v>
       </c>
@@ -7677,13 +9538,20 @@
       <c r="D268" s="48" t="s">
         <v>346</v>
       </c>
-      <c r="E268" s="48"/>
-      <c r="F268" s="48"/>
+      <c r="E268" s="48">
+        <v>17065</v>
+      </c>
+      <c r="F268" s="48">
+        <v>17065</v>
+      </c>
       <c r="G268" s="48">
         <v>17065</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H268" s="48">
+        <v>17065</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>6</v>
       </c>
@@ -7696,13 +9564,20 @@
       <c r="D269" s="48" t="s">
         <v>348</v>
       </c>
-      <c r="E269" s="48"/>
-      <c r="F269" s="48"/>
+      <c r="E269" s="48">
+        <v>17816</v>
+      </c>
+      <c r="F269" s="48">
+        <v>17816</v>
+      </c>
       <c r="G269" s="48">
         <v>17816</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H269" s="48">
+        <v>17816</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>6</v>
       </c>
@@ -7715,13 +9590,20 @@
       <c r="D270" s="48" t="s">
         <v>349</v>
       </c>
-      <c r="E270" s="48"/>
-      <c r="F270" s="48"/>
+      <c r="E270" s="48">
+        <v>7567</v>
+      </c>
+      <c r="F270" s="48">
+        <v>7567</v>
+      </c>
       <c r="G270" s="48">
         <v>7567</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H270" s="48">
+        <v>7567</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>6</v>
       </c>
@@ -7734,13 +9616,20 @@
       <c r="D271" s="48" t="s">
         <v>350</v>
       </c>
-      <c r="E271" s="48"/>
-      <c r="F271" s="48"/>
+      <c r="E271" s="48">
+        <v>17450</v>
+      </c>
+      <c r="F271" s="48">
+        <v>17450</v>
+      </c>
       <c r="G271" s="48">
         <v>17450</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H271" s="48">
+        <v>17450</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>6</v>
       </c>
@@ -7753,13 +9642,20 @@
       <c r="D272" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="E272" s="48"/>
-      <c r="F272" s="48"/>
+      <c r="E272" s="48">
+        <v>12884</v>
+      </c>
+      <c r="F272" s="48">
+        <v>12884</v>
+      </c>
       <c r="G272" s="48">
         <v>12884</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H272" s="48">
+        <v>12884</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>6</v>
       </c>
@@ -7772,13 +9668,20 @@
       <c r="D273" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="E273" s="48"/>
-      <c r="F273" s="48"/>
+      <c r="E273" s="48">
+        <v>6176</v>
+      </c>
+      <c r="F273" s="48">
+        <v>6176</v>
+      </c>
       <c r="G273" s="48">
         <v>6176</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H273" s="48">
+        <v>6176</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>6</v>
       </c>
@@ -7791,13 +9694,20 @@
       <c r="D274" s="48" t="s">
         <v>353</v>
       </c>
-      <c r="E274" s="48"/>
-      <c r="F274" s="48"/>
+      <c r="E274" s="48">
+        <v>10777</v>
+      </c>
+      <c r="F274" s="48">
+        <v>10777</v>
+      </c>
       <c r="G274" s="48">
         <v>10777</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H274" s="48">
+        <v>10777</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>6</v>
       </c>
@@ -7810,13 +9720,20 @@
       <c r="D275" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="E275" s="48"/>
-      <c r="F275" s="48"/>
+      <c r="E275" s="48">
+        <v>7943</v>
+      </c>
+      <c r="F275" s="48">
+        <v>7943</v>
+      </c>
       <c r="G275" s="48">
         <v>7943</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H275" s="48">
+        <v>7943</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>6</v>
       </c>
@@ -7829,13 +9746,20 @@
       <c r="D276" s="48" t="s">
         <v>355</v>
       </c>
-      <c r="E276" s="48"/>
-      <c r="F276" s="48"/>
+      <c r="E276" s="48">
+        <v>8959</v>
+      </c>
+      <c r="F276" s="48">
+        <v>8959</v>
+      </c>
       <c r="G276" s="48">
         <v>8959</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H276" s="48">
+        <v>8959</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>6</v>
       </c>
@@ -7848,13 +9772,20 @@
       <c r="D277" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="E277" s="48"/>
-      <c r="F277" s="48"/>
+      <c r="E277" s="48">
+        <v>4102</v>
+      </c>
+      <c r="F277" s="48">
+        <v>4102</v>
+      </c>
       <c r="G277" s="48">
         <v>4102</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H277" s="48">
+        <v>4102</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>6</v>
       </c>
@@ -7867,13 +9798,20 @@
       <c r="D278" s="48" t="s">
         <v>357</v>
       </c>
-      <c r="E278" s="48"/>
-      <c r="F278" s="48"/>
+      <c r="E278" s="48">
+        <v>4215</v>
+      </c>
+      <c r="F278" s="48">
+        <v>4215</v>
+      </c>
       <c r="G278" s="48">
         <v>4215</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H278" s="48">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>6</v>
       </c>
@@ -7886,13 +9824,20 @@
       <c r="D279" s="48" t="s">
         <v>358</v>
       </c>
-      <c r="E279" s="48"/>
-      <c r="F279" s="48"/>
+      <c r="E279" s="48">
+        <v>4933</v>
+      </c>
+      <c r="F279" s="48">
+        <v>4933</v>
+      </c>
       <c r="G279" s="48">
         <v>4933</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H279" s="48">
+        <v>4933</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>6</v>
       </c>
@@ -7905,13 +9850,20 @@
       <c r="D280" s="48" t="s">
         <v>359</v>
       </c>
-      <c r="E280" s="48"/>
-      <c r="F280" s="48"/>
+      <c r="E280" s="48">
+        <v>7665</v>
+      </c>
+      <c r="F280" s="48">
+        <v>7665</v>
+      </c>
       <c r="G280" s="48">
         <v>7665</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H280" s="48">
+        <v>7665</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>6</v>
       </c>
@@ -7924,13 +9876,20 @@
       <c r="D281" s="48" t="s">
         <v>360</v>
       </c>
-      <c r="E281" s="48"/>
-      <c r="F281" s="48"/>
+      <c r="E281" s="48">
+        <v>6167</v>
+      </c>
+      <c r="F281" s="48">
+        <v>6167</v>
+      </c>
       <c r="G281" s="48">
         <v>6167</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H281" s="48">
+        <v>6167</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>6</v>
       </c>
@@ -7943,13 +9902,20 @@
       <c r="D282" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="E282" s="48"/>
-      <c r="F282" s="48"/>
+      <c r="E282" s="48">
+        <v>10285</v>
+      </c>
+      <c r="F282" s="48">
+        <v>10285</v>
+      </c>
       <c r="G282" s="48">
         <v>10285</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H282" s="48">
+        <v>10285</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>7</v>
       </c>
@@ -7962,13 +9928,20 @@
       <c r="D283" s="48" t="s">
         <v>363</v>
       </c>
-      <c r="E283" s="48"/>
-      <c r="F283" s="48"/>
+      <c r="E283" s="48">
+        <v>2798</v>
+      </c>
+      <c r="F283" s="48">
+        <v>2798</v>
+      </c>
       <c r="G283" s="48">
         <v>2798</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H283" s="48">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>7</v>
       </c>
@@ -7981,13 +9954,20 @@
       <c r="D284" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="E284" s="48"/>
-      <c r="F284" s="48"/>
+      <c r="E284" s="48">
+        <v>30582</v>
+      </c>
+      <c r="F284" s="48">
+        <v>30582</v>
+      </c>
       <c r="G284" s="48">
         <v>30582</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H284" s="48">
+        <v>30582</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>7</v>
       </c>
@@ -8000,13 +9980,20 @@
       <c r="D285" s="48" t="s">
         <v>365</v>
       </c>
-      <c r="E285" s="48"/>
-      <c r="F285" s="48"/>
+      <c r="E285" s="48">
+        <v>4495</v>
+      </c>
+      <c r="F285" s="48">
+        <v>4495</v>
+      </c>
       <c r="G285" s="48">
         <v>4495</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H285" s="48">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>7</v>
       </c>
@@ -8019,13 +10006,20 @@
       <c r="D286" s="48" t="s">
         <v>366</v>
       </c>
-      <c r="E286" s="48"/>
-      <c r="F286" s="48"/>
+      <c r="E286" s="48">
+        <v>4809</v>
+      </c>
+      <c r="F286" s="48">
+        <v>4809</v>
+      </c>
       <c r="G286" s="48">
         <v>4809</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H286" s="48">
+        <v>4809</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>7</v>
       </c>
@@ -8038,13 +10032,20 @@
       <c r="D287" s="48" t="s">
         <v>367</v>
       </c>
-      <c r="E287" s="48"/>
-      <c r="F287" s="48"/>
+      <c r="E287" s="48">
+        <v>5056</v>
+      </c>
+      <c r="F287" s="48">
+        <v>5056</v>
+      </c>
       <c r="G287" s="48">
         <v>5056</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H287" s="48">
+        <v>5056</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>7</v>
       </c>
@@ -8057,13 +10058,20 @@
       <c r="D288" s="48" t="s">
         <v>368</v>
       </c>
-      <c r="E288" s="48"/>
-      <c r="F288" s="48"/>
+      <c r="E288" s="48">
+        <v>1786</v>
+      </c>
+      <c r="F288" s="48">
+        <v>1786</v>
+      </c>
       <c r="G288" s="48">
         <v>1786</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H288" s="48">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>7</v>
       </c>
@@ -8076,13 +10084,20 @@
       <c r="D289" s="48" t="s">
         <v>369</v>
       </c>
-      <c r="E289" s="48"/>
-      <c r="F289" s="48"/>
+      <c r="E289" s="48">
+        <v>4221</v>
+      </c>
+      <c r="F289" s="48">
+        <v>4221</v>
+      </c>
       <c r="G289" s="48">
         <v>4221</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H289" s="48">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>7</v>
       </c>
@@ -8095,13 +10110,20 @@
       <c r="D290" s="48" t="s">
         <v>370</v>
       </c>
-      <c r="E290" s="48"/>
-      <c r="F290" s="48"/>
+      <c r="E290" s="48">
+        <v>9801</v>
+      </c>
+      <c r="F290" s="48">
+        <v>9801</v>
+      </c>
       <c r="G290" s="48">
         <v>9801</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H290" s="48">
+        <v>9801</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>7</v>
       </c>
@@ -8114,13 +10136,20 @@
       <c r="D291" s="48" t="s">
         <v>371</v>
       </c>
-      <c r="E291" s="48"/>
-      <c r="F291" s="48"/>
+      <c r="E291" s="48">
+        <v>758</v>
+      </c>
+      <c r="F291" s="48">
+        <v>758</v>
+      </c>
       <c r="G291" s="48">
         <v>758</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H291" s="48">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>7</v>
       </c>
@@ -8133,13 +10162,20 @@
       <c r="D292" s="48" t="s">
         <v>372</v>
       </c>
-      <c r="E292" s="48"/>
-      <c r="F292" s="48"/>
+      <c r="E292" s="48">
+        <v>2160</v>
+      </c>
+      <c r="F292" s="48">
+        <v>2160</v>
+      </c>
       <c r="G292" s="48">
         <v>2160</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H292" s="48">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>7</v>
       </c>
@@ -8152,13 +10188,20 @@
       <c r="D293" s="48" t="s">
         <v>373</v>
       </c>
-      <c r="E293" s="48"/>
-      <c r="F293" s="48"/>
+      <c r="E293" s="48">
+        <v>2768</v>
+      </c>
+      <c r="F293" s="48">
+        <v>2768</v>
+      </c>
       <c r="G293" s="48">
         <v>2768</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H293" s="48">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>7</v>
       </c>
@@ -8171,13 +10214,20 @@
       <c r="D294" s="48" t="s">
         <v>374</v>
       </c>
-      <c r="E294" s="48"/>
-      <c r="F294" s="48"/>
+      <c r="E294" s="48">
+        <v>20779</v>
+      </c>
+      <c r="F294" s="48">
+        <v>20779</v>
+      </c>
       <c r="G294" s="48">
         <v>20779</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H294" s="48">
+        <v>20779</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>7</v>
       </c>
@@ -8190,13 +10240,20 @@
       <c r="D295" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="E295" s="48"/>
-      <c r="F295" s="48"/>
+      <c r="E295" s="48">
+        <v>1656</v>
+      </c>
+      <c r="F295" s="48">
+        <v>1656</v>
+      </c>
       <c r="G295" s="48">
         <v>1656</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H295" s="48">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>7</v>
       </c>
@@ -8209,13 +10266,20 @@
       <c r="D296" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="E296" s="48"/>
-      <c r="F296" s="48"/>
+      <c r="E296" s="48">
+        <v>3167</v>
+      </c>
+      <c r="F296" s="48">
+        <v>3167</v>
+      </c>
       <c r="G296" s="48">
         <v>3167</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H296" s="48">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>7</v>
       </c>
@@ -8228,13 +10292,20 @@
       <c r="D297" s="48" t="s">
         <v>377</v>
       </c>
-      <c r="E297" s="48"/>
-      <c r="F297" s="48"/>
+      <c r="E297" s="48">
+        <v>2879</v>
+      </c>
+      <c r="F297" s="48">
+        <v>2879</v>
+      </c>
       <c r="G297" s="48">
         <v>2879</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H297" s="48">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>7</v>
       </c>
@@ -8247,13 +10318,20 @@
       <c r="D298" s="48" t="s">
         <v>378</v>
       </c>
-      <c r="E298" s="48"/>
-      <c r="F298" s="48"/>
+      <c r="E298" s="48">
+        <v>6300</v>
+      </c>
+      <c r="F298" s="48">
+        <v>6300</v>
+      </c>
       <c r="G298" s="48">
         <v>6300</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H298" s="48">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>7</v>
       </c>
@@ -8266,13 +10344,20 @@
       <c r="D299" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="E299" s="48"/>
-      <c r="F299" s="48"/>
+      <c r="E299" s="48">
+        <v>710</v>
+      </c>
+      <c r="F299" s="48">
+        <v>710</v>
+      </c>
       <c r="G299" s="48">
         <v>710</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H299" s="48">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>7</v>
       </c>
@@ -8285,13 +10370,20 @@
       <c r="D300" s="48" t="s">
         <v>380</v>
       </c>
-      <c r="E300" s="48"/>
-      <c r="F300" s="48"/>
+      <c r="E300" s="48">
+        <v>11531</v>
+      </c>
+      <c r="F300" s="48">
+        <v>11531</v>
+      </c>
       <c r="G300" s="48">
         <v>11531</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H300" s="48">
+        <v>11531</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>7</v>
       </c>
@@ -8304,13 +10396,20 @@
       <c r="D301" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="E301" s="48"/>
-      <c r="F301" s="48"/>
+      <c r="E301" s="48">
+        <v>31437</v>
+      </c>
+      <c r="F301" s="48">
+        <v>31437</v>
+      </c>
       <c r="G301" s="48">
         <v>31437</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H301" s="48">
+        <v>31437</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>10</v>
       </c>
@@ -8323,13 +10422,20 @@
       <c r="D302" s="48" t="s">
         <v>383</v>
       </c>
-      <c r="E302" s="48"/>
-      <c r="F302" s="48"/>
+      <c r="E302" s="48">
+        <v>25038</v>
+      </c>
+      <c r="F302" s="48">
+        <v>25038</v>
+      </c>
       <c r="G302" s="48">
         <v>25038</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H302" s="48">
+        <v>25038</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>10</v>
       </c>
@@ -8342,13 +10448,20 @@
       <c r="D303" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="E303" s="48"/>
-      <c r="F303" s="48"/>
+      <c r="E303" s="48">
+        <v>11982</v>
+      </c>
+      <c r="F303" s="48">
+        <v>11982</v>
+      </c>
       <c r="G303" s="48">
         <v>11982</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H303" s="48">
+        <v>11982</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>10</v>
       </c>
@@ -8361,13 +10474,20 @@
       <c r="D304" s="48" t="s">
         <v>385</v>
       </c>
-      <c r="E304" s="48"/>
-      <c r="F304" s="48"/>
+      <c r="E304" s="48">
+        <v>24197</v>
+      </c>
+      <c r="F304" s="48">
+        <v>24197</v>
+      </c>
       <c r="G304" s="48">
         <v>24197</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H304" s="48">
+        <v>24197</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>10</v>
       </c>
@@ -8380,13 +10500,20 @@
       <c r="D305" s="48" t="s">
         <v>386</v>
       </c>
-      <c r="E305" s="48"/>
-      <c r="F305" s="48"/>
+      <c r="E305" s="48">
+        <v>13860</v>
+      </c>
+      <c r="F305" s="48">
+        <v>13860</v>
+      </c>
       <c r="G305" s="48">
         <v>13860</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H305" s="48">
+        <v>13860</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>10</v>
       </c>
@@ -8399,13 +10526,20 @@
       <c r="D306" s="48" t="s">
         <v>387</v>
       </c>
-      <c r="E306" s="48"/>
-      <c r="F306" s="48"/>
+      <c r="E306" s="48">
+        <v>3680</v>
+      </c>
+      <c r="F306" s="48">
+        <v>3680</v>
+      </c>
       <c r="G306" s="48">
         <v>3680</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H306" s="48">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>10</v>
       </c>
@@ -8418,13 +10552,20 @@
       <c r="D307" s="48" t="s">
         <v>388</v>
       </c>
-      <c r="E307" s="48"/>
-      <c r="F307" s="48"/>
+      <c r="E307" s="48">
+        <v>10893</v>
+      </c>
+      <c r="F307" s="48">
+        <v>10893</v>
+      </c>
       <c r="G307" s="48">
         <v>10893</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H307" s="48">
+        <v>10893</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>10</v>
       </c>
@@ -8437,13 +10578,20 @@
       <c r="D308" s="48" t="s">
         <v>389</v>
       </c>
-      <c r="E308" s="48"/>
-      <c r="F308" s="48"/>
+      <c r="E308" s="48">
+        <v>7788</v>
+      </c>
+      <c r="F308" s="48">
+        <v>7788</v>
+      </c>
       <c r="G308" s="48">
         <v>7788</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H308" s="48">
+        <v>7788</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>10</v>
       </c>
@@ -8456,13 +10604,20 @@
       <c r="D309" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="E309" s="48"/>
-      <c r="F309" s="48"/>
+      <c r="E309" s="48">
+        <v>22763</v>
+      </c>
+      <c r="F309" s="48">
+        <v>22763</v>
+      </c>
       <c r="G309" s="48">
         <v>22763</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H309" s="48">
+        <v>22763</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>10</v>
       </c>
@@ -8475,13 +10630,20 @@
       <c r="D310" s="48" t="s">
         <v>391</v>
       </c>
-      <c r="E310" s="48"/>
-      <c r="F310" s="48"/>
+      <c r="E310" s="48">
+        <v>5807</v>
+      </c>
+      <c r="F310" s="48">
+        <v>5807</v>
+      </c>
       <c r="G310" s="48">
         <v>5807</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H310" s="48">
+        <v>5807</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>10</v>
       </c>
@@ -8494,13 +10656,20 @@
       <c r="D311" s="48" t="s">
         <v>392</v>
       </c>
-      <c r="E311" s="48"/>
-      <c r="F311" s="48"/>
+      <c r="E311" s="48">
+        <v>7462</v>
+      </c>
+      <c r="F311" s="48">
+        <v>7462</v>
+      </c>
       <c r="G311" s="48">
         <v>7462</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H311" s="48">
+        <v>7462</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>10</v>
       </c>
@@ -8513,13 +10682,20 @@
       <c r="D312" s="48" t="s">
         <v>393</v>
       </c>
-      <c r="E312" s="48"/>
-      <c r="F312" s="48"/>
+      <c r="E312" s="48">
+        <v>2620</v>
+      </c>
+      <c r="F312" s="48">
+        <v>2620</v>
+      </c>
       <c r="G312" s="48">
         <v>2620</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H312" s="48">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>10</v>
       </c>
@@ -8532,13 +10708,20 @@
       <c r="D313" s="48" t="s">
         <v>394</v>
       </c>
-      <c r="E313" s="48"/>
-      <c r="F313" s="48"/>
+      <c r="E313" s="48">
+        <v>4052</v>
+      </c>
+      <c r="F313" s="48">
+        <v>4052</v>
+      </c>
       <c r="G313" s="48">
         <v>4052</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H313" s="48">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>10</v>
       </c>
@@ -8551,13 +10734,20 @@
       <c r="D314" s="48" t="s">
         <v>395</v>
       </c>
-      <c r="E314" s="48"/>
-      <c r="F314" s="48"/>
+      <c r="E314" s="48">
+        <v>8640</v>
+      </c>
+      <c r="F314" s="48">
+        <v>8640</v>
+      </c>
       <c r="G314" s="48">
         <v>8640</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H314" s="48">
+        <v>8640</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>10</v>
       </c>
@@ -8570,13 +10760,20 @@
       <c r="D315" s="48" t="s">
         <v>396</v>
       </c>
-      <c r="E315" s="48"/>
-      <c r="F315" s="48"/>
+      <c r="E315" s="48">
+        <v>3367</v>
+      </c>
+      <c r="F315" s="48">
+        <v>3367</v>
+      </c>
       <c r="G315" s="48">
         <v>3367</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H315" s="48">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>10</v>
       </c>
@@ -8589,13 +10786,20 @@
       <c r="D316" s="48" t="s">
         <v>338</v>
       </c>
-      <c r="E316" s="48"/>
-      <c r="F316" s="48"/>
+      <c r="E316" s="48">
+        <v>4551</v>
+      </c>
+      <c r="F316" s="48">
+        <v>4551</v>
+      </c>
       <c r="G316" s="48">
         <v>4551</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H316" s="48">
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>10</v>
       </c>
@@ -8608,13 +10812,20 @@
       <c r="D317" s="48" t="s">
         <v>397</v>
       </c>
-      <c r="E317" s="48"/>
-      <c r="F317" s="48"/>
+      <c r="E317" s="48">
+        <v>4729</v>
+      </c>
+      <c r="F317" s="48">
+        <v>4729</v>
+      </c>
       <c r="G317" s="48">
         <v>4729</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H317" s="48">
+        <v>4729</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>10</v>
       </c>
@@ -8627,13 +10838,20 @@
       <c r="D318" s="48" t="s">
         <v>398</v>
       </c>
-      <c r="E318" s="48"/>
-      <c r="F318" s="48"/>
+      <c r="E318" s="48">
+        <v>6450</v>
+      </c>
+      <c r="F318" s="48">
+        <v>6450</v>
+      </c>
       <c r="G318" s="48">
         <v>6450</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H318" s="48">
+        <v>6450</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>10</v>
       </c>
@@ -8646,13 +10864,20 @@
       <c r="D319" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="E319" s="48"/>
-      <c r="F319" s="48"/>
+      <c r="E319" s="48">
+        <v>9772</v>
+      </c>
+      <c r="F319" s="48">
+        <v>9772</v>
+      </c>
       <c r="G319" s="48">
         <v>9772</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H319" s="48">
+        <v>9772</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>10</v>
       </c>
@@ -8665,13 +10890,20 @@
       <c r="D320" s="48" t="s">
         <v>399</v>
       </c>
-      <c r="E320" s="48"/>
-      <c r="F320" s="48"/>
+      <c r="E320" s="48">
+        <v>16359</v>
+      </c>
+      <c r="F320" s="48">
+        <v>16359</v>
+      </c>
       <c r="G320" s="48">
         <v>16359</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H320" s="48">
+        <v>16359</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>10</v>
       </c>
@@ -8684,13 +10916,20 @@
       <c r="D321" s="48" t="s">
         <v>400</v>
       </c>
-      <c r="E321" s="48"/>
-      <c r="F321" s="48"/>
+      <c r="E321" s="48">
+        <v>3654</v>
+      </c>
+      <c r="F321" s="48">
+        <v>3654</v>
+      </c>
       <c r="G321" s="48">
         <v>3654</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H321" s="48">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>10</v>
       </c>
@@ -8703,13 +10942,20 @@
       <c r="D322" s="48" t="s">
         <v>401</v>
       </c>
-      <c r="E322" s="48"/>
-      <c r="F322" s="48"/>
+      <c r="E322" s="48">
+        <v>2719</v>
+      </c>
+      <c r="F322" s="48">
+        <v>2719</v>
+      </c>
       <c r="G322" s="48">
         <v>2719</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H322" s="48">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>8</v>
       </c>
@@ -8722,13 +10968,20 @@
       <c r="D323" s="48" t="s">
         <v>403</v>
       </c>
-      <c r="E323" s="48"/>
-      <c r="F323" s="48"/>
+      <c r="E323" s="48">
+        <v>56112</v>
+      </c>
+      <c r="F323" s="48">
+        <v>56112</v>
+      </c>
       <c r="G323" s="48">
         <v>56112</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H323" s="48">
+        <v>56112</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>8</v>
       </c>
@@ -8741,13 +10994,20 @@
       <c r="D324" s="48" t="s">
         <v>404</v>
       </c>
-      <c r="E324" s="48"/>
-      <c r="F324" s="48"/>
+      <c r="E324" s="48">
+        <v>10299</v>
+      </c>
+      <c r="F324" s="48">
+        <v>10299</v>
+      </c>
       <c r="G324" s="48">
         <v>10299</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H324" s="48">
+        <v>10299</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>8</v>
       </c>
@@ -8760,13 +11020,20 @@
       <c r="D325" s="48" t="s">
         <v>405</v>
       </c>
-      <c r="E325" s="48"/>
-      <c r="F325" s="48"/>
+      <c r="E325" s="48">
+        <v>5214</v>
+      </c>
+      <c r="F325" s="48">
+        <v>5214</v>
+      </c>
       <c r="G325" s="48">
         <v>5214</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H325" s="48">
+        <v>5214</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>8</v>
       </c>
@@ -8779,13 +11046,20 @@
       <c r="D326" s="48" t="s">
         <v>406</v>
       </c>
-      <c r="E326" s="48"/>
-      <c r="F326" s="48"/>
+      <c r="E326" s="48">
+        <v>12781</v>
+      </c>
+      <c r="F326" s="48">
+        <v>12781</v>
+      </c>
       <c r="G326" s="48">
         <v>12781</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H326" s="48">
+        <v>12781</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>8</v>
       </c>
@@ -8798,13 +11072,20 @@
       <c r="D327" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="E327" s="48"/>
-      <c r="F327" s="48"/>
+      <c r="E327" s="48">
+        <v>21808</v>
+      </c>
+      <c r="F327" s="48">
+        <v>21808</v>
+      </c>
       <c r="G327" s="48">
         <v>21808</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H327" s="48">
+        <v>21808</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>8</v>
       </c>
@@ -8817,13 +11098,20 @@
       <c r="D328" s="48" t="s">
         <v>408</v>
       </c>
-      <c r="E328" s="48"/>
-      <c r="F328" s="48"/>
+      <c r="E328" s="48">
+        <v>11428</v>
+      </c>
+      <c r="F328" s="48">
+        <v>11428</v>
+      </c>
       <c r="G328" s="48">
         <v>11428</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H328" s="48">
+        <v>11428</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>8</v>
       </c>
@@ -8836,13 +11124,20 @@
       <c r="D329" s="48" t="s">
         <v>409</v>
       </c>
-      <c r="E329" s="48"/>
-      <c r="F329" s="48"/>
+      <c r="E329" s="48">
+        <v>24476</v>
+      </c>
+      <c r="F329" s="48">
+        <v>24476</v>
+      </c>
       <c r="G329" s="48">
         <v>24476</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H329" s="48">
+        <v>24476</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>8</v>
       </c>
@@ -8855,13 +11150,20 @@
       <c r="D330" s="48" t="s">
         <v>410</v>
       </c>
-      <c r="E330" s="48"/>
-      <c r="F330" s="48"/>
+      <c r="E330" s="48">
+        <v>34141</v>
+      </c>
+      <c r="F330" s="48">
+        <v>34141</v>
+      </c>
       <c r="G330" s="48">
         <v>34141</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H330" s="48">
+        <v>34141</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>19</v>
       </c>
@@ -8874,13 +11176,20 @@
       <c r="D331" s="48" t="s">
         <v>412</v>
       </c>
-      <c r="E331" s="48"/>
-      <c r="F331" s="48"/>
+      <c r="E331" s="48">
+        <v>4814</v>
+      </c>
+      <c r="F331" s="48">
+        <v>4814</v>
+      </c>
       <c r="G331" s="48">
         <v>4814</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H331" s="48">
+        <v>4814</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>19</v>
       </c>
@@ -8893,13 +11202,20 @@
       <c r="D332" s="48" t="s">
         <v>413</v>
       </c>
-      <c r="E332" s="48"/>
-      <c r="F332" s="48"/>
+      <c r="E332" s="48">
+        <v>2743</v>
+      </c>
+      <c r="F332" s="48">
+        <v>2743</v>
+      </c>
       <c r="G332" s="48">
         <v>2743</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H332" s="48">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>19</v>
       </c>
@@ -8912,13 +11228,20 @@
       <c r="D333" s="48" t="s">
         <v>414</v>
       </c>
-      <c r="E333" s="48"/>
-      <c r="F333" s="48"/>
+      <c r="E333" s="48">
+        <v>15748</v>
+      </c>
+      <c r="F333" s="48">
+        <v>15748</v>
+      </c>
       <c r="G333" s="48">
         <v>15748</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H333" s="48">
+        <v>15748</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>19</v>
       </c>
@@ -8931,13 +11254,20 @@
       <c r="D334" s="48" t="s">
         <v>415</v>
       </c>
-      <c r="E334" s="48"/>
-      <c r="F334" s="48"/>
+      <c r="E334" s="48">
+        <v>4284</v>
+      </c>
+      <c r="F334" s="48">
+        <v>4284</v>
+      </c>
       <c r="G334" s="48">
         <v>4284</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H334" s="48">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>19</v>
       </c>
@@ -8950,13 +11280,20 @@
       <c r="D335" s="48" t="s">
         <v>416</v>
       </c>
-      <c r="E335" s="48"/>
-      <c r="F335" s="48"/>
+      <c r="E335" s="48">
+        <v>15559</v>
+      </c>
+      <c r="F335" s="48">
+        <v>15559</v>
+      </c>
       <c r="G335" s="48">
         <v>15559</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H335" s="48">
+        <v>15559</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>19</v>
       </c>
@@ -8969,13 +11306,20 @@
       <c r="D336" s="48" t="s">
         <v>417</v>
       </c>
-      <c r="E336" s="48"/>
-      <c r="F336" s="48"/>
+      <c r="E336" s="48">
+        <v>6512</v>
+      </c>
+      <c r="F336" s="48">
+        <v>6512</v>
+      </c>
       <c r="G336" s="48">
         <v>6512</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H336" s="48">
+        <v>6512</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>19</v>
       </c>
@@ -8988,13 +11332,20 @@
       <c r="D337" s="48" t="s">
         <v>418</v>
       </c>
-      <c r="E337" s="48"/>
-      <c r="F337" s="48"/>
+      <c r="E337" s="48">
+        <v>2420</v>
+      </c>
+      <c r="F337" s="48">
+        <v>2420</v>
+      </c>
       <c r="G337" s="48">
         <v>2420</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H337" s="48">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>19</v>
       </c>
@@ -9007,13 +11358,20 @@
       <c r="D338" s="48" t="s">
         <v>419</v>
       </c>
-      <c r="E338" s="48"/>
-      <c r="F338" s="48"/>
+      <c r="E338" s="48">
+        <v>4157</v>
+      </c>
+      <c r="F338" s="48">
+        <v>4157</v>
+      </c>
       <c r="G338" s="48">
         <v>4157</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H338" s="48">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>19</v>
       </c>
@@ -9026,13 +11384,20 @@
       <c r="D339" s="48" t="s">
         <v>420</v>
       </c>
-      <c r="E339" s="48"/>
-      <c r="F339" s="48"/>
+      <c r="E339" s="48">
+        <v>5924</v>
+      </c>
+      <c r="F339" s="48">
+        <v>5924</v>
+      </c>
       <c r="G339" s="48">
         <v>5924</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H339" s="48">
+        <v>5924</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>19</v>
       </c>
@@ -9045,13 +11410,20 @@
       <c r="D340" s="48" t="s">
         <v>421</v>
       </c>
-      <c r="E340" s="48"/>
-      <c r="F340" s="48"/>
+      <c r="E340" s="48">
+        <v>4219</v>
+      </c>
+      <c r="F340" s="48">
+        <v>4219</v>
+      </c>
       <c r="G340" s="48">
         <v>4219</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H340" s="48">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>19</v>
       </c>
@@ -9064,9 +11436,16 @@
       <c r="D341" s="48" t="s">
         <v>411</v>
       </c>
-      <c r="E341" s="48"/>
-      <c r="F341" s="48"/>
+      <c r="E341" s="48">
+        <v>19015</v>
+      </c>
+      <c r="F341" s="48">
+        <v>19015</v>
+      </c>
       <c r="G341" s="48">
+        <v>19015</v>
+      </c>
+      <c r="H341" s="48">
         <v>19015</v>
       </c>
     </row>

--- a/src/Data/country_data.xlsx
+++ b/src/Data/country_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -2497,7 +2497,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
